--- a/xl/КБиСП 5 курс 2 сем-Д.xlsx
+++ b/xl/КБиСП 5 курс 2 сем-Д.xlsx
@@ -567,18 +567,19 @@
     <t>11,13,15,17 н  Современные платежные системы и их безопасность</t>
   </si>
   <si>
+    <t>Голобоков В.А.</t>
+  </si>
+  <si>
     <t>В-78*
-Е</t>
-  </si>
-  <si>
-    <t>Голобоков В.А.</t>
+Е59
+Е58</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,6 +967,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -2885,9 +2892,6 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2899,6 +2903,24 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2939,6 +2961,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2960,6 +2985,54 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2969,80 +3042,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="59" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3342,7 +3349,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA14" sqref="AA14"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3412,187 +3419,187 @@
   <sheetData>
     <row r="1" spans="1:61" ht="112.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="419" t="s">
+      <c r="B1" s="417" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="419"/>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
-      <c r="I1" s="419"/>
-      <c r="J1" s="419"/>
-      <c r="K1" s="419"/>
-      <c r="L1" s="419"/>
-      <c r="M1" s="419"/>
-      <c r="N1" s="419"/>
+      <c r="C1" s="417"/>
+      <c r="D1" s="417"/>
+      <c r="E1" s="417"/>
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="417"/>
+      <c r="I1" s="417"/>
+      <c r="J1" s="417"/>
+      <c r="K1" s="417"/>
+      <c r="L1" s="417"/>
+      <c r="M1" s="417"/>
+      <c r="N1" s="417"/>
       <c r="O1" s="309"/>
-      <c r="P1" s="420" t="s">
+      <c r="P1" s="418" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="420"/>
-      <c r="R1" s="420"/>
-      <c r="S1" s="420"/>
+      <c r="Q1" s="418"/>
+      <c r="R1" s="418"/>
+      <c r="S1" s="418"/>
       <c r="T1" s="193"/>
       <c r="U1" s="13"/>
-      <c r="V1" s="419" t="s">
+      <c r="V1" s="417" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="419"/>
-      <c r="X1" s="419"/>
-      <c r="Y1" s="419"/>
-      <c r="Z1" s="419"/>
-      <c r="AA1" s="419"/>
-      <c r="AB1" s="419"/>
-      <c r="AC1" s="419"/>
-      <c r="AD1" s="419"/>
-      <c r="AE1" s="419"/>
-      <c r="AF1" s="419"/>
-      <c r="AG1" s="419"/>
-      <c r="AH1" s="419"/>
+      <c r="W1" s="417"/>
+      <c r="X1" s="417"/>
+      <c r="Y1" s="417"/>
+      <c r="Z1" s="417"/>
+      <c r="AA1" s="417"/>
+      <c r="AB1" s="417"/>
+      <c r="AC1" s="417"/>
+      <c r="AD1" s="417"/>
+      <c r="AE1" s="417"/>
+      <c r="AF1" s="417"/>
+      <c r="AG1" s="417"/>
+      <c r="AH1" s="417"/>
       <c r="AI1" s="309"/>
-      <c r="AJ1" s="420" t="s">
+      <c r="AJ1" s="418" t="s">
         <v>68</v>
       </c>
-      <c r="AK1" s="420"/>
-      <c r="AL1" s="420"/>
-      <c r="AM1" s="420"/>
+      <c r="AK1" s="418"/>
+      <c r="AL1" s="418"/>
+      <c r="AM1" s="418"/>
       <c r="AN1" s="193"/>
       <c r="AO1" s="13"/>
-      <c r="AP1" s="419" t="s">
+      <c r="AP1" s="417" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" s="419"/>
-      <c r="AR1" s="419"/>
-      <c r="AS1" s="419"/>
-      <c r="AT1" s="419"/>
-      <c r="AU1" s="419"/>
-      <c r="AV1" s="419"/>
-      <c r="AW1" s="419"/>
-      <c r="AX1" s="419"/>
-      <c r="AY1" s="419"/>
-      <c r="AZ1" s="419"/>
-      <c r="BA1" s="419"/>
-      <c r="BB1" s="419"/>
+      <c r="AQ1" s="417"/>
+      <c r="AR1" s="417"/>
+      <c r="AS1" s="417"/>
+      <c r="AT1" s="417"/>
+      <c r="AU1" s="417"/>
+      <c r="AV1" s="417"/>
+      <c r="AW1" s="417"/>
+      <c r="AX1" s="417"/>
+      <c r="AY1" s="417"/>
+      <c r="AZ1" s="417"/>
+      <c r="BA1" s="417"/>
+      <c r="BB1" s="417"/>
       <c r="BC1" s="309"/>
-      <c r="BD1" s="420" t="s">
+      <c r="BD1" s="418" t="s">
         <v>68</v>
       </c>
-      <c r="BE1" s="420"/>
-      <c r="BF1" s="420"/>
-      <c r="BG1" s="420"/>
+      <c r="BE1" s="418"/>
+      <c r="BF1" s="418"/>
+      <c r="BG1" s="418"/>
       <c r="BH1" s="197"/>
     </row>
     <row r="2" spans="1:61" s="64" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="421" t="s">
+      <c r="A2" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="423" t="s">
+      <c r="B2" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="424"/>
-      <c r="D2" s="424"/>
-      <c r="E2" s="425"/>
-      <c r="F2" s="429" t="s">
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="423"/>
+      <c r="F2" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="430"/>
-      <c r="H2" s="431"/>
+      <c r="G2" s="425"/>
+      <c r="H2" s="426"/>
       <c r="I2" s="14">
         <v>26</v>
       </c>
       <c r="J2" s="148"/>
-      <c r="K2" s="429" t="s">
+      <c r="K2" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="430"/>
-      <c r="M2" s="431"/>
+      <c r="L2" s="425"/>
+      <c r="M2" s="426"/>
       <c r="N2" s="21">
         <v>24</v>
       </c>
       <c r="O2" s="148"/>
-      <c r="P2" s="429" t="s">
+      <c r="P2" s="424" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="430"/>
-      <c r="R2" s="431"/>
+      <c r="Q2" s="425"/>
+      <c r="R2" s="426"/>
       <c r="S2" s="25">
         <v>19</v>
       </c>
       <c r="T2" s="148"/>
-      <c r="U2" s="421" t="s">
+      <c r="U2" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="423" t="s">
+      <c r="V2" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="424"/>
-      <c r="X2" s="424"/>
-      <c r="Y2" s="425"/>
-      <c r="Z2" s="429" t="s">
+      <c r="W2" s="422"/>
+      <c r="X2" s="422"/>
+      <c r="Y2" s="423"/>
+      <c r="Z2" s="424" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="430"/>
-      <c r="AB2" s="431"/>
+      <c r="AA2" s="425"/>
+      <c r="AB2" s="426"/>
       <c r="AC2" s="21">
         <v>21</v>
       </c>
       <c r="AD2" s="148"/>
-      <c r="AE2" s="415" t="s">
+      <c r="AE2" s="427" t="s">
         <v>38</v>
       </c>
-      <c r="AF2" s="416"/>
-      <c r="AG2" s="417"/>
+      <c r="AF2" s="428"/>
+      <c r="AG2" s="429"/>
       <c r="AH2" s="14">
         <v>30</v>
       </c>
       <c r="AI2" s="148"/>
-      <c r="AJ2" s="415" t="s">
+      <c r="AJ2" s="427" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="416"/>
-      <c r="AL2" s="417"/>
+      <c r="AK2" s="428"/>
+      <c r="AL2" s="429"/>
       <c r="AM2" s="21">
         <v>32</v>
       </c>
       <c r="AN2" s="148"/>
-      <c r="AO2" s="421" t="s">
+      <c r="AO2" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="423" t="s">
+      <c r="AP2" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="AQ2" s="424"/>
-      <c r="AR2" s="424"/>
-      <c r="AS2" s="425"/>
-      <c r="AT2" s="415" t="s">
+      <c r="AQ2" s="422"/>
+      <c r="AR2" s="422"/>
+      <c r="AS2" s="423"/>
+      <c r="AT2" s="427" t="s">
         <v>40</v>
       </c>
-      <c r="AU2" s="416"/>
-      <c r="AV2" s="417"/>
+      <c r="AU2" s="428"/>
+      <c r="AV2" s="429"/>
       <c r="AW2" s="21">
         <v>29</v>
       </c>
       <c r="AX2" s="209"/>
-      <c r="AY2" s="418" t="s">
+      <c r="AY2" s="437" t="s">
         <v>43</v>
       </c>
-      <c r="AZ2" s="416"/>
-      <c r="BA2" s="417"/>
+      <c r="AZ2" s="428"/>
+      <c r="BA2" s="429"/>
       <c r="BB2" s="21">
         <v>3</v>
       </c>
       <c r="BC2" s="209"/>
-      <c r="BD2" s="418"/>
-      <c r="BE2" s="416"/>
-      <c r="BF2" s="417"/>
+      <c r="BD2" s="437"/>
+      <c r="BE2" s="428"/>
+      <c r="BF2" s="429"/>
       <c r="BG2" s="14"/>
       <c r="BH2" s="209"/>
       <c r="BI2" s="145"/>
     </row>
     <row r="3" spans="1:61" s="2" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="422"/>
+      <c r="A3" s="420"/>
       <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
@@ -3648,7 +3655,7 @@
       <c r="T3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="422"/>
+      <c r="U3" s="420"/>
       <c r="V3" s="15" t="s">
         <v>14</v>
       </c>
@@ -3704,7 +3711,7 @@
       <c r="AN3" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AO3" s="422"/>
+      <c r="AO3" s="420"/>
       <c r="AP3" s="15" t="s">
         <v>14</v>
       </c>
@@ -3757,16 +3764,16 @@
       <c r="BI3" s="146"/>
     </row>
     <row r="4" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="426" t="s">
+      <c r="A4" s="430" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="394">
+      <c r="B4" s="399">
         <v>1</v>
       </c>
-      <c r="C4" s="396" t="s">
+      <c r="C4" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="396" t="s">
+      <c r="D4" s="401" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -3799,22 +3806,22 @@
         <v>158</v>
       </c>
       <c r="T4" s="284"/>
-      <c r="U4" s="426" t="s">
+      <c r="U4" s="430" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="394">
+      <c r="V4" s="399">
         <v>1</v>
       </c>
-      <c r="W4" s="396" t="s">
+      <c r="W4" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="396" t="s">
+      <c r="X4" s="401" t="s">
         <v>32</v>
       </c>
       <c r="Y4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="387" t="s">
+      <c r="Z4" s="386" t="s">
         <v>156</v>
       </c>
       <c r="AA4" s="378" t="s">
@@ -3853,16 +3860,16 @@
         <v>143</v>
       </c>
       <c r="AN4" s="88"/>
-      <c r="AO4" s="426" t="s">
+      <c r="AO4" s="430" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="394">
+      <c r="AP4" s="399">
         <v>1</v>
       </c>
-      <c r="AQ4" s="396" t="s">
+      <c r="AQ4" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="AR4" s="396" t="s">
+      <c r="AR4" s="401" t="s">
         <v>32</v>
       </c>
       <c r="AS4" s="77" t="s">
@@ -3894,10 +3901,10 @@
       <c r="BI4" s="147"/>
     </row>
     <row r="5" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="427"/>
-      <c r="B5" s="395"/>
-      <c r="C5" s="397"/>
-      <c r="D5" s="397"/>
+      <c r="A5" s="431"/>
+      <c r="B5" s="400"/>
+      <c r="C5" s="402"/>
+      <c r="D5" s="402"/>
       <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
@@ -3928,14 +3935,14 @@
         <v>143</v>
       </c>
       <c r="T5" s="211"/>
-      <c r="U5" s="427"/>
-      <c r="V5" s="395"/>
-      <c r="W5" s="397"/>
-      <c r="X5" s="397"/>
+      <c r="U5" s="431"/>
+      <c r="V5" s="400"/>
+      <c r="W5" s="402"/>
+      <c r="X5" s="402"/>
       <c r="Y5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="388" t="s">
+      <c r="Z5" s="387" t="s">
         <v>159</v>
       </c>
       <c r="AA5" s="378" t="s">
@@ -3974,10 +3981,10 @@
         <v>143</v>
       </c>
       <c r="AN5" s="198"/>
-      <c r="AO5" s="427"/>
-      <c r="AP5" s="395"/>
-      <c r="AQ5" s="397"/>
-      <c r="AR5" s="397"/>
+      <c r="AO5" s="431"/>
+      <c r="AP5" s="400"/>
+      <c r="AQ5" s="402"/>
+      <c r="AR5" s="402"/>
       <c r="AS5" s="78" t="s">
         <v>2</v>
       </c>
@@ -4007,14 +4014,14 @@
       <c r="BI5" s="147"/>
     </row>
     <row r="6" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="427"/>
-      <c r="B6" s="398">
+      <c r="A6" s="431"/>
+      <c r="B6" s="403">
         <v>2</v>
       </c>
-      <c r="C6" s="399" t="s">
+      <c r="C6" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="399" t="s">
+      <c r="D6" s="404" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -4047,20 +4054,20 @@
         <v>158</v>
       </c>
       <c r="T6" s="284"/>
-      <c r="U6" s="427"/>
-      <c r="V6" s="398">
+      <c r="U6" s="431"/>
+      <c r="V6" s="403">
         <v>2</v>
       </c>
-      <c r="W6" s="399" t="s">
+      <c r="W6" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="399" t="s">
+      <c r="X6" s="404" t="s">
         <v>34</v>
       </c>
       <c r="Y6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Z6" s="388" t="s">
+      <c r="Z6" s="387" t="s">
         <v>156</v>
       </c>
       <c r="AA6" s="378" t="s">
@@ -4099,14 +4106,14 @@
         <v>143</v>
       </c>
       <c r="AN6" s="88"/>
-      <c r="AO6" s="427"/>
-      <c r="AP6" s="398">
+      <c r="AO6" s="431"/>
+      <c r="AP6" s="403">
         <v>2</v>
       </c>
-      <c r="AQ6" s="399" t="s">
+      <c r="AQ6" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="399" t="s">
+      <c r="AR6" s="404" t="s">
         <v>34</v>
       </c>
       <c r="AS6" s="79" t="s">
@@ -4138,10 +4145,10 @@
       <c r="BI6" s="147"/>
     </row>
     <row r="7" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="427"/>
-      <c r="B7" s="395"/>
-      <c r="C7" s="397"/>
-      <c r="D7" s="397"/>
+      <c r="A7" s="431"/>
+      <c r="B7" s="400"/>
+      <c r="C7" s="402"/>
+      <c r="D7" s="402"/>
       <c r="E7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4172,14 +4179,14 @@
         <v>143</v>
       </c>
       <c r="T7" s="211"/>
-      <c r="U7" s="427"/>
-      <c r="V7" s="395"/>
-      <c r="W7" s="397"/>
-      <c r="X7" s="397"/>
+      <c r="U7" s="431"/>
+      <c r="V7" s="400"/>
+      <c r="W7" s="402"/>
+      <c r="X7" s="402"/>
       <c r="Y7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="388" t="s">
+      <c r="Z7" s="387" t="s">
         <v>159</v>
       </c>
       <c r="AA7" s="378" t="s">
@@ -4218,10 +4225,10 @@
         <v>143</v>
       </c>
       <c r="AN7" s="198"/>
-      <c r="AO7" s="427"/>
-      <c r="AP7" s="395"/>
-      <c r="AQ7" s="397"/>
-      <c r="AR7" s="397"/>
+      <c r="AO7" s="431"/>
+      <c r="AP7" s="400"/>
+      <c r="AQ7" s="402"/>
+      <c r="AR7" s="402"/>
       <c r="AS7" s="79" t="s">
         <v>2</v>
       </c>
@@ -4251,14 +4258,14 @@
       <c r="BI7" s="147"/>
     </row>
     <row r="8" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="427"/>
-      <c r="B8" s="398">
+      <c r="A8" s="431"/>
+      <c r="B8" s="403">
         <v>3</v>
       </c>
-      <c r="C8" s="399" t="s">
+      <c r="C8" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="399" t="s">
+      <c r="D8" s="404" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -4283,14 +4290,14 @@
       <c r="R8" s="314"/>
       <c r="S8" s="306"/>
       <c r="T8" s="284"/>
-      <c r="U8" s="427"/>
-      <c r="V8" s="398">
+      <c r="U8" s="431"/>
+      <c r="V8" s="403">
         <v>3</v>
       </c>
-      <c r="W8" s="399" t="s">
+      <c r="W8" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="399" t="s">
+      <c r="X8" s="404" t="s">
         <v>59</v>
       </c>
       <c r="Y8" s="9" t="s">
@@ -4327,14 +4334,14 @@
         <v>143</v>
       </c>
       <c r="AN8" s="88"/>
-      <c r="AO8" s="427"/>
-      <c r="AP8" s="398">
+      <c r="AO8" s="431"/>
+      <c r="AP8" s="403">
         <v>3</v>
       </c>
-      <c r="AQ8" s="399" t="s">
+      <c r="AQ8" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="399" t="s">
+      <c r="AR8" s="404" t="s">
         <v>59</v>
       </c>
       <c r="AS8" s="79" t="s">
@@ -4366,10 +4373,10 @@
       <c r="BI8" s="147"/>
     </row>
     <row r="9" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="427"/>
-      <c r="B9" s="401"/>
-      <c r="C9" s="400"/>
-      <c r="D9" s="400"/>
+      <c r="A9" s="431"/>
+      <c r="B9" s="406"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="405"/>
       <c r="E9" s="9" t="s">
         <v>2</v>
       </c>
@@ -4392,14 +4399,14 @@
       <c r="R9" s="303"/>
       <c r="S9" s="304"/>
       <c r="T9" s="212"/>
-      <c r="U9" s="427"/>
-      <c r="V9" s="401"/>
-      <c r="W9" s="400"/>
-      <c r="X9" s="400"/>
+      <c r="U9" s="431"/>
+      <c r="V9" s="406"/>
+      <c r="W9" s="405"/>
+      <c r="X9" s="405"/>
       <c r="Y9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="389"/>
+      <c r="Z9" s="388"/>
       <c r="AA9" s="96"/>
       <c r="AB9" s="46"/>
       <c r="AC9" s="307"/>
@@ -4414,10 +4421,10 @@
       <c r="AL9" s="314"/>
       <c r="AM9" s="257"/>
       <c r="AN9" s="199"/>
-      <c r="AO9" s="427"/>
-      <c r="AP9" s="401"/>
-      <c r="AQ9" s="400"/>
-      <c r="AR9" s="400"/>
+      <c r="AO9" s="431"/>
+      <c r="AP9" s="406"/>
+      <c r="AQ9" s="405"/>
+      <c r="AR9" s="405"/>
       <c r="AS9" s="79" t="s">
         <v>2</v>
       </c>
@@ -4439,14 +4446,14 @@
       <c r="BI9" s="147"/>
     </row>
     <row r="10" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="427"/>
-      <c r="B10" s="398">
+      <c r="A10" s="431"/>
+      <c r="B10" s="403">
         <v>4</v>
       </c>
-      <c r="C10" s="399" t="s">
+      <c r="C10" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="399" t="s">
+      <c r="D10" s="404" t="s">
         <v>61</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -4473,36 +4480,36 @@
         <v>85</v>
       </c>
       <c r="R10" s="385" t="s">
+        <v>174</v>
+      </c>
+      <c r="S10" s="438" t="s">
         <v>175</v>
       </c>
-      <c r="S10" s="386" t="s">
-        <v>174</v>
-      </c>
       <c r="T10" s="213"/>
-      <c r="U10" s="427"/>
-      <c r="V10" s="398">
+      <c r="U10" s="431"/>
+      <c r="V10" s="403">
         <v>4</v>
       </c>
-      <c r="W10" s="399" t="s">
+      <c r="W10" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="399" t="s">
+      <c r="X10" s="404" t="s">
         <v>61</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Z10" s="390" t="s">
+      <c r="Z10" s="389" t="s">
         <v>173</v>
       </c>
       <c r="AA10" s="359" t="s">
         <v>85</v>
       </c>
       <c r="AB10" s="385" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC10" s="438" t="s">
         <v>175</v>
-      </c>
-      <c r="AC10" s="386" t="s">
-        <v>174</v>
       </c>
       <c r="AD10" s="69"/>
       <c r="AE10" s="294"/>
@@ -4515,14 +4522,14 @@
       <c r="AL10" s="314"/>
       <c r="AM10" s="257"/>
       <c r="AN10" s="69"/>
-      <c r="AO10" s="427"/>
-      <c r="AP10" s="398">
+      <c r="AO10" s="431"/>
+      <c r="AP10" s="403">
         <v>4</v>
       </c>
-      <c r="AQ10" s="399" t="s">
+      <c r="AQ10" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="AR10" s="399" t="s">
+      <c r="AR10" s="404" t="s">
         <v>61</v>
       </c>
       <c r="AS10" s="79" t="s">
@@ -4546,10 +4553,10 @@
       <c r="BI10" s="147"/>
     </row>
     <row r="11" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="427"/>
-      <c r="B11" s="395"/>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
+      <c r="A11" s="431"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="402"/>
+      <c r="D11" s="402"/>
       <c r="E11" s="42" t="s">
         <v>2</v>
       </c>
@@ -4572,10 +4579,10 @@
       <c r="R11" s="303"/>
       <c r="S11" s="304"/>
       <c r="T11" s="212"/>
-      <c r="U11" s="427"/>
-      <c r="V11" s="395"/>
-      <c r="W11" s="397"/>
-      <c r="X11" s="397"/>
+      <c r="U11" s="431"/>
+      <c r="V11" s="400"/>
+      <c r="W11" s="402"/>
+      <c r="X11" s="402"/>
       <c r="Y11" s="42" t="s">
         <v>2</v>
       </c>
@@ -4594,10 +4601,10 @@
       <c r="AL11" s="314"/>
       <c r="AM11" s="304"/>
       <c r="AN11" s="199"/>
-      <c r="AO11" s="427"/>
-      <c r="AP11" s="395"/>
-      <c r="AQ11" s="397"/>
-      <c r="AR11" s="397"/>
+      <c r="AO11" s="431"/>
+      <c r="AP11" s="400"/>
+      <c r="AQ11" s="402"/>
+      <c r="AR11" s="402"/>
       <c r="AS11" s="42" t="s">
         <v>2</v>
       </c>
@@ -4619,14 +4626,14 @@
       <c r="BI11" s="147"/>
     </row>
     <row r="12" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="427"/>
-      <c r="B12" s="398">
+      <c r="A12" s="431"/>
+      <c r="B12" s="403">
         <v>5</v>
       </c>
-      <c r="C12" s="399" t="s">
+      <c r="C12" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="399" t="s">
+      <c r="D12" s="404" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
@@ -4653,36 +4660,36 @@
         <v>85</v>
       </c>
       <c r="R12" s="385" t="s">
+        <v>174</v>
+      </c>
+      <c r="S12" s="438" t="s">
         <v>175</v>
       </c>
-      <c r="S12" s="386" t="s">
-        <v>174</v>
-      </c>
       <c r="T12" s="284"/>
-      <c r="U12" s="427"/>
-      <c r="V12" s="398">
+      <c r="U12" s="431"/>
+      <c r="V12" s="403">
         <v>5</v>
       </c>
-      <c r="W12" s="399" t="s">
+      <c r="W12" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="X12" s="399" t="s">
+      <c r="X12" s="404" t="s">
         <v>62</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Z12" s="390" t="s">
+      <c r="Z12" s="389" t="s">
         <v>173</v>
       </c>
       <c r="AA12" s="359" t="s">
         <v>85</v>
       </c>
       <c r="AB12" s="385" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC12" s="438" t="s">
         <v>175</v>
-      </c>
-      <c r="AC12" s="386" t="s">
-        <v>174</v>
       </c>
       <c r="AD12" s="88"/>
       <c r="AE12" s="294"/>
@@ -4695,14 +4702,14 @@
       <c r="AL12" s="314"/>
       <c r="AM12" s="257"/>
       <c r="AN12" s="88"/>
-      <c r="AO12" s="427"/>
-      <c r="AP12" s="398">
+      <c r="AO12" s="431"/>
+      <c r="AP12" s="403">
         <v>5</v>
       </c>
-      <c r="AQ12" s="399" t="s">
+      <c r="AQ12" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="AR12" s="399" t="s">
+      <c r="AR12" s="404" t="s">
         <v>62</v>
       </c>
       <c r="AS12" s="79" t="s">
@@ -4726,10 +4733,10 @@
       <c r="BI12" s="147"/>
     </row>
     <row r="13" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="427"/>
-      <c r="B13" s="395"/>
-      <c r="C13" s="397"/>
-      <c r="D13" s="397"/>
+      <c r="A13" s="431"/>
+      <c r="B13" s="400"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
       <c r="E13" s="9" t="s">
         <v>2</v>
       </c>
@@ -4752,10 +4759,10 @@
       <c r="R13" s="314"/>
       <c r="S13" s="304"/>
       <c r="T13" s="214"/>
-      <c r="U13" s="427"/>
-      <c r="V13" s="395"/>
-      <c r="W13" s="397"/>
-      <c r="X13" s="397"/>
+      <c r="U13" s="431"/>
+      <c r="V13" s="400"/>
+      <c r="W13" s="402"/>
+      <c r="X13" s="402"/>
       <c r="Y13" s="9" t="s">
         <v>2</v>
       </c>
@@ -4774,10 +4781,10 @@
       <c r="AL13" s="314"/>
       <c r="AM13" s="257"/>
       <c r="AN13" s="200"/>
-      <c r="AO13" s="427"/>
-      <c r="AP13" s="395"/>
-      <c r="AQ13" s="397"/>
-      <c r="AR13" s="397"/>
+      <c r="AO13" s="431"/>
+      <c r="AP13" s="400"/>
+      <c r="AQ13" s="402"/>
+      <c r="AR13" s="402"/>
       <c r="AS13" s="79" t="s">
         <v>2</v>
       </c>
@@ -4799,14 +4806,14 @@
       <c r="BI13" s="147"/>
     </row>
     <row r="14" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="427"/>
-      <c r="B14" s="401">
+      <c r="A14" s="431"/>
+      <c r="B14" s="406">
         <v>6</v>
       </c>
-      <c r="C14" s="400" t="s">
+      <c r="C14" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="399" t="s">
+      <c r="D14" s="404" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="79" t="s">
@@ -4831,14 +4838,14 @@
       <c r="R14" s="314"/>
       <c r="S14" s="313"/>
       <c r="T14" s="201"/>
-      <c r="U14" s="427"/>
-      <c r="V14" s="401">
+      <c r="U14" s="431"/>
+      <c r="V14" s="406">
         <v>6</v>
       </c>
-      <c r="W14" s="400" t="s">
+      <c r="W14" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="400" t="s">
+      <c r="X14" s="405" t="s">
         <v>63</v>
       </c>
       <c r="Y14" s="9" t="s">
@@ -4859,14 +4866,14 @@
       <c r="AL14" s="314"/>
       <c r="AM14" s="257"/>
       <c r="AN14" s="201"/>
-      <c r="AO14" s="427"/>
-      <c r="AP14" s="401">
+      <c r="AO14" s="431"/>
+      <c r="AP14" s="406">
         <v>6</v>
       </c>
-      <c r="AQ14" s="400" t="s">
+      <c r="AQ14" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="AR14" s="400" t="s">
+      <c r="AR14" s="405" t="s">
         <v>63</v>
       </c>
       <c r="AS14" s="79" t="s">
@@ -4890,10 +4897,10 @@
       <c r="BI14" s="147"/>
     </row>
     <row r="15" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="428"/>
-      <c r="B15" s="402"/>
-      <c r="C15" s="403"/>
-      <c r="D15" s="403"/>
+      <c r="A15" s="432"/>
+      <c r="B15" s="407"/>
+      <c r="C15" s="408"/>
+      <c r="D15" s="408"/>
       <c r="E15" s="76" t="s">
         <v>2</v>
       </c>
@@ -4916,10 +4923,10 @@
       <c r="R15" s="297"/>
       <c r="S15" s="296"/>
       <c r="T15" s="196"/>
-      <c r="U15" s="428"/>
-      <c r="V15" s="402"/>
-      <c r="W15" s="403"/>
-      <c r="X15" s="403"/>
+      <c r="U15" s="432"/>
+      <c r="V15" s="407"/>
+      <c r="W15" s="408"/>
+      <c r="X15" s="408"/>
       <c r="Y15" s="3" t="s">
         <v>2</v>
       </c>
@@ -4938,10 +4945,10 @@
       <c r="AL15" s="297"/>
       <c r="AM15" s="103"/>
       <c r="AN15" s="89"/>
-      <c r="AO15" s="428"/>
-      <c r="AP15" s="402"/>
-      <c r="AQ15" s="403"/>
-      <c r="AR15" s="403"/>
+      <c r="AO15" s="432"/>
+      <c r="AP15" s="407"/>
+      <c r="AQ15" s="408"/>
+      <c r="AR15" s="408"/>
       <c r="AS15" s="76" t="s">
         <v>2</v>
       </c>
@@ -4963,16 +4970,16 @@
       <c r="BI15" s="147"/>
     </row>
     <row r="16" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="411" t="s">
+      <c r="A16" s="433" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="401">
+      <c r="B16" s="406">
         <v>1</v>
       </c>
-      <c r="C16" s="396" t="s">
+      <c r="C16" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="400" t="s">
+      <c r="D16" s="405" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="41" t="s">
@@ -4993,16 +5000,16 @@
       <c r="R16" s="320"/>
       <c r="S16" s="134"/>
       <c r="T16" s="321"/>
-      <c r="U16" s="411" t="s">
+      <c r="U16" s="433" t="s">
         <v>0</v>
       </c>
-      <c r="V16" s="394">
+      <c r="V16" s="399">
         <v>1</v>
       </c>
-      <c r="W16" s="396" t="s">
+      <c r="W16" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="396" t="s">
+      <c r="X16" s="401" t="s">
         <v>32</v>
       </c>
       <c r="Y16" s="322" t="s">
@@ -5023,16 +5030,16 @@
       <c r="AL16" s="287"/>
       <c r="AM16" s="251"/>
       <c r="AN16" s="326"/>
-      <c r="AO16" s="411" t="s">
+      <c r="AO16" s="433" t="s">
         <v>0</v>
       </c>
-      <c r="AP16" s="394">
+      <c r="AP16" s="399">
         <v>1</v>
       </c>
-      <c r="AQ16" s="396" t="s">
+      <c r="AQ16" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="AR16" s="396" t="s">
+      <c r="AR16" s="401" t="s">
         <v>32</v>
       </c>
       <c r="AS16" s="322" t="s">
@@ -5056,10 +5063,10 @@
       <c r="BI16" s="147"/>
     </row>
     <row r="17" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="412"/>
-      <c r="B17" s="395"/>
-      <c r="C17" s="397"/>
-      <c r="D17" s="397"/>
+      <c r="A17" s="434"/>
+      <c r="B17" s="400"/>
+      <c r="C17" s="402"/>
+      <c r="D17" s="402"/>
       <c r="E17" s="40" t="s">
         <v>2</v>
       </c>
@@ -5082,10 +5089,10 @@
       <c r="R17" s="303"/>
       <c r="S17" s="304"/>
       <c r="T17" s="215"/>
-      <c r="U17" s="412"/>
-      <c r="V17" s="395"/>
-      <c r="W17" s="397"/>
-      <c r="X17" s="397"/>
+      <c r="U17" s="434"/>
+      <c r="V17" s="400"/>
+      <c r="W17" s="402"/>
+      <c r="X17" s="402"/>
       <c r="Y17" s="40" t="s">
         <v>2</v>
       </c>
@@ -5112,10 +5119,10 @@
       <c r="AL17" s="311"/>
       <c r="AM17" s="161"/>
       <c r="AN17" s="151"/>
-      <c r="AO17" s="412"/>
-      <c r="AP17" s="395"/>
-      <c r="AQ17" s="397"/>
-      <c r="AR17" s="397"/>
+      <c r="AO17" s="434"/>
+      <c r="AP17" s="400"/>
+      <c r="AQ17" s="402"/>
+      <c r="AR17" s="402"/>
       <c r="AS17" s="40" t="s">
         <v>2</v>
       </c>
@@ -5145,14 +5152,14 @@
       <c r="BI17" s="147"/>
     </row>
     <row r="18" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="412"/>
-      <c r="B18" s="398">
+      <c r="A18" s="434"/>
+      <c r="B18" s="403">
         <v>2</v>
       </c>
-      <c r="C18" s="399" t="s">
+      <c r="C18" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="399" t="s">
+      <c r="D18" s="404" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -5177,14 +5184,14 @@
       <c r="R18" s="168"/>
       <c r="S18" s="313"/>
       <c r="T18" s="215"/>
-      <c r="U18" s="412"/>
-      <c r="V18" s="398">
+      <c r="U18" s="434"/>
+      <c r="V18" s="403">
         <v>2</v>
       </c>
-      <c r="W18" s="399" t="s">
+      <c r="W18" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="399" t="s">
+      <c r="X18" s="404" t="s">
         <v>34</v>
       </c>
       <c r="Y18" s="79" t="s">
@@ -5205,14 +5212,14 @@
       <c r="AL18" s="314"/>
       <c r="AM18" s="304"/>
       <c r="AN18" s="151"/>
-      <c r="AO18" s="412"/>
-      <c r="AP18" s="398">
+      <c r="AO18" s="434"/>
+      <c r="AP18" s="403">
         <v>2</v>
       </c>
-      <c r="AQ18" s="399" t="s">
+      <c r="AQ18" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="AR18" s="399" t="s">
+      <c r="AR18" s="404" t="s">
         <v>34</v>
       </c>
       <c r="AS18" s="79" t="s">
@@ -5244,10 +5251,10 @@
       <c r="BI18" s="147"/>
     </row>
     <row r="19" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="412"/>
-      <c r="B19" s="395"/>
-      <c r="C19" s="397"/>
-      <c r="D19" s="397"/>
+      <c r="A19" s="434"/>
+      <c r="B19" s="400"/>
+      <c r="C19" s="402"/>
+      <c r="D19" s="402"/>
       <c r="E19" s="9" t="s">
         <v>2</v>
       </c>
@@ -5270,10 +5277,10 @@
       <c r="R19" s="311"/>
       <c r="S19" s="304"/>
       <c r="T19" s="215"/>
-      <c r="U19" s="412"/>
-      <c r="V19" s="395"/>
-      <c r="W19" s="397"/>
-      <c r="X19" s="397"/>
+      <c r="U19" s="434"/>
+      <c r="V19" s="400"/>
+      <c r="W19" s="402"/>
+      <c r="X19" s="402"/>
       <c r="Y19" s="79" t="s">
         <v>2</v>
       </c>
@@ -5300,10 +5307,10 @@
       <c r="AL19" s="314"/>
       <c r="AM19" s="257"/>
       <c r="AN19" s="151"/>
-      <c r="AO19" s="412"/>
-      <c r="AP19" s="395"/>
-      <c r="AQ19" s="397"/>
-      <c r="AR19" s="397"/>
+      <c r="AO19" s="434"/>
+      <c r="AP19" s="400"/>
+      <c r="AQ19" s="402"/>
+      <c r="AR19" s="402"/>
       <c r="AS19" s="79" t="s">
         <v>2</v>
       </c>
@@ -5341,14 +5348,14 @@
       <c r="BI19" s="147"/>
     </row>
     <row r="20" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="412"/>
-      <c r="B20" s="398">
+      <c r="A20" s="434"/>
+      <c r="B20" s="403">
         <v>3</v>
       </c>
-      <c r="C20" s="399" t="s">
+      <c r="C20" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="399" t="s">
+      <c r="D20" s="404" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -5381,14 +5388,14 @@
         <v>143</v>
       </c>
       <c r="T20" s="215"/>
-      <c r="U20" s="412"/>
-      <c r="V20" s="398">
+      <c r="U20" s="434"/>
+      <c r="V20" s="403">
         <v>3</v>
       </c>
-      <c r="W20" s="399" t="s">
+      <c r="W20" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="399" t="s">
+      <c r="X20" s="404" t="s">
         <v>59</v>
       </c>
       <c r="Y20" s="79" t="s">
@@ -5417,14 +5424,14 @@
       <c r="AL20" s="314"/>
       <c r="AM20" s="304"/>
       <c r="AN20" s="151"/>
-      <c r="AO20" s="412"/>
-      <c r="AP20" s="398">
+      <c r="AO20" s="434"/>
+      <c r="AP20" s="403">
         <v>3</v>
       </c>
-      <c r="AQ20" s="399" t="s">
+      <c r="AQ20" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="399" t="s">
+      <c r="AR20" s="404" t="s">
         <v>59</v>
       </c>
       <c r="AS20" s="79" t="s">
@@ -5456,10 +5463,10 @@
       <c r="BI20" s="147"/>
     </row>
     <row r="21" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="412"/>
-      <c r="B21" s="395"/>
-      <c r="C21" s="400"/>
-      <c r="D21" s="400"/>
+      <c r="A21" s="434"/>
+      <c r="B21" s="400"/>
+      <c r="C21" s="405"/>
+      <c r="D21" s="405"/>
       <c r="E21" s="9" t="s">
         <v>2</v>
       </c>
@@ -5490,10 +5497,10 @@
         <v>358</v>
       </c>
       <c r="T21" s="215"/>
-      <c r="U21" s="412"/>
-      <c r="V21" s="395"/>
-      <c r="W21" s="400"/>
-      <c r="X21" s="400"/>
+      <c r="U21" s="434"/>
+      <c r="V21" s="400"/>
+      <c r="W21" s="405"/>
+      <c r="X21" s="405"/>
       <c r="Y21" s="79" t="s">
         <v>2</v>
       </c>
@@ -5528,10 +5535,10 @@
         <v>134</v>
       </c>
       <c r="AN21" s="151"/>
-      <c r="AO21" s="412"/>
-      <c r="AP21" s="395"/>
-      <c r="AQ21" s="400"/>
-      <c r="AR21" s="400"/>
+      <c r="AO21" s="434"/>
+      <c r="AP21" s="400"/>
+      <c r="AQ21" s="405"/>
+      <c r="AR21" s="405"/>
       <c r="AS21" s="79" t="s">
         <v>2</v>
       </c>
@@ -5569,14 +5576,14 @@
       <c r="BI21" s="147"/>
     </row>
     <row r="22" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="412"/>
-      <c r="B22" s="398">
+      <c r="A22" s="434"/>
+      <c r="B22" s="403">
         <v>4</v>
       </c>
-      <c r="C22" s="399" t="s">
+      <c r="C22" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="399" t="s">
+      <c r="D22" s="404" t="s">
         <v>61</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -5609,14 +5616,14 @@
         <v>143</v>
       </c>
       <c r="T22" s="215"/>
-      <c r="U22" s="412"/>
-      <c r="V22" s="398">
+      <c r="U22" s="434"/>
+      <c r="V22" s="403">
         <v>4</v>
       </c>
-      <c r="W22" s="399" t="s">
+      <c r="W22" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="399" t="s">
+      <c r="X22" s="404" t="s">
         <v>61</v>
       </c>
       <c r="Y22" s="79" t="s">
@@ -5645,14 +5652,14 @@
       <c r="AL22" s="314"/>
       <c r="AM22" s="257"/>
       <c r="AN22" s="151"/>
-      <c r="AO22" s="412"/>
-      <c r="AP22" s="398">
+      <c r="AO22" s="434"/>
+      <c r="AP22" s="403">
         <v>4</v>
       </c>
-      <c r="AQ22" s="399" t="s">
+      <c r="AQ22" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="AR22" s="399" t="s">
+      <c r="AR22" s="404" t="s">
         <v>61</v>
       </c>
       <c r="AS22" s="79" t="s">
@@ -5676,10 +5683,10 @@
       <c r="BI22" s="147"/>
     </row>
     <row r="23" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="412"/>
-      <c r="B23" s="395"/>
-      <c r="C23" s="397"/>
-      <c r="D23" s="397"/>
+      <c r="A23" s="434"/>
+      <c r="B23" s="400"/>
+      <c r="C23" s="402"/>
+      <c r="D23" s="402"/>
       <c r="E23" s="9" t="s">
         <v>2</v>
       </c>
@@ -5710,10 +5717,10 @@
         <v>358</v>
       </c>
       <c r="T23" s="215"/>
-      <c r="U23" s="412"/>
-      <c r="V23" s="395"/>
-      <c r="W23" s="397"/>
-      <c r="X23" s="397"/>
+      <c r="U23" s="434"/>
+      <c r="V23" s="400"/>
+      <c r="W23" s="402"/>
+      <c r="X23" s="402"/>
       <c r="Y23" s="79" t="s">
         <v>2</v>
       </c>
@@ -5748,10 +5755,10 @@
         <v>134</v>
       </c>
       <c r="AN23" s="151"/>
-      <c r="AO23" s="412"/>
-      <c r="AP23" s="395"/>
-      <c r="AQ23" s="397"/>
-      <c r="AR23" s="397"/>
+      <c r="AO23" s="434"/>
+      <c r="AP23" s="400"/>
+      <c r="AQ23" s="402"/>
+      <c r="AR23" s="402"/>
       <c r="AS23" s="79" t="s">
         <v>2</v>
       </c>
@@ -5781,14 +5788,14 @@
       <c r="BI23" s="147"/>
     </row>
     <row r="24" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="412"/>
-      <c r="B24" s="398">
+      <c r="A24" s="434"/>
+      <c r="B24" s="403">
         <v>5</v>
       </c>
-      <c r="C24" s="399" t="s">
+      <c r="C24" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="399" t="s">
+      <c r="D24" s="404" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -5821,14 +5828,14 @@
         <v>144</v>
       </c>
       <c r="T24" s="215"/>
-      <c r="U24" s="412"/>
-      <c r="V24" s="398">
+      <c r="U24" s="434"/>
+      <c r="V24" s="403">
         <v>5</v>
       </c>
-      <c r="W24" s="399" t="s">
+      <c r="W24" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="X24" s="399" t="s">
+      <c r="X24" s="404" t="s">
         <v>62</v>
       </c>
       <c r="Y24" s="79" t="s">
@@ -5873,14 +5880,14 @@
         <v>143</v>
       </c>
       <c r="AN24" s="151"/>
-      <c r="AO24" s="412"/>
-      <c r="AP24" s="398">
+      <c r="AO24" s="434"/>
+      <c r="AP24" s="403">
         <v>5</v>
       </c>
-      <c r="AQ24" s="399" t="s">
+      <c r="AQ24" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="AR24" s="399" t="s">
+      <c r="AR24" s="404" t="s">
         <v>62</v>
       </c>
       <c r="AS24" s="79" t="s">
@@ -5912,10 +5919,10 @@
       <c r="BI24" s="147"/>
     </row>
     <row r="25" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="412"/>
-      <c r="B25" s="395"/>
-      <c r="C25" s="397"/>
-      <c r="D25" s="397"/>
+      <c r="A25" s="434"/>
+      <c r="B25" s="400"/>
+      <c r="C25" s="402"/>
+      <c r="D25" s="402"/>
       <c r="E25" s="9" t="s">
         <v>2</v>
       </c>
@@ -5942,10 +5949,10 @@
         <v>96</v>
       </c>
       <c r="T25" s="284"/>
-      <c r="U25" s="412"/>
-      <c r="V25" s="395"/>
-      <c r="W25" s="397"/>
-      <c r="X25" s="397"/>
+      <c r="U25" s="434"/>
+      <c r="V25" s="400"/>
+      <c r="W25" s="402"/>
+      <c r="X25" s="402"/>
       <c r="Y25" s="79" t="s">
         <v>2</v>
       </c>
@@ -5980,10 +5987,10 @@
         <v>147</v>
       </c>
       <c r="AN25" s="276"/>
-      <c r="AO25" s="412"/>
-      <c r="AP25" s="395"/>
-      <c r="AQ25" s="397"/>
-      <c r="AR25" s="397"/>
+      <c r="AO25" s="434"/>
+      <c r="AP25" s="400"/>
+      <c r="AQ25" s="402"/>
+      <c r="AR25" s="402"/>
       <c r="AS25" s="79" t="s">
         <v>2</v>
       </c>
@@ -6005,14 +6012,14 @@
       <c r="BI25" s="147"/>
     </row>
     <row r="26" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="412"/>
-      <c r="B26" s="401">
+      <c r="A26" s="434"/>
+      <c r="B26" s="406">
         <v>6</v>
       </c>
-      <c r="C26" s="400" t="s">
+      <c r="C26" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="400" t="s">
+      <c r="D26" s="405" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -6041,14 +6048,14 @@
         <v>144</v>
       </c>
       <c r="T26" s="284"/>
-      <c r="U26" s="412"/>
-      <c r="V26" s="401">
+      <c r="U26" s="434"/>
+      <c r="V26" s="406">
         <v>6</v>
       </c>
-      <c r="W26" s="400" t="s">
+      <c r="W26" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="X26" s="400" t="s">
+      <c r="X26" s="405" t="s">
         <v>63</v>
       </c>
       <c r="Y26" s="79" t="s">
@@ -6093,14 +6100,14 @@
         <v>143</v>
       </c>
       <c r="AN26" s="276"/>
-      <c r="AO26" s="412"/>
-      <c r="AP26" s="401">
+      <c r="AO26" s="434"/>
+      <c r="AP26" s="406">
         <v>6</v>
       </c>
-      <c r="AQ26" s="400" t="s">
+      <c r="AQ26" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="AR26" s="400" t="s">
+      <c r="AR26" s="405" t="s">
         <v>63</v>
       </c>
       <c r="AS26" s="79" t="s">
@@ -6132,10 +6139,10 @@
       <c r="BI26" s="147"/>
     </row>
     <row r="27" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="413"/>
-      <c r="B27" s="402"/>
-      <c r="C27" s="403"/>
-      <c r="D27" s="403"/>
+      <c r="A27" s="435"/>
+      <c r="B27" s="407"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="408"/>
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
@@ -6162,10 +6169,10 @@
         <v>96</v>
       </c>
       <c r="T27" s="196"/>
-      <c r="U27" s="413"/>
-      <c r="V27" s="402"/>
-      <c r="W27" s="403"/>
-      <c r="X27" s="403"/>
+      <c r="U27" s="435"/>
+      <c r="V27" s="407"/>
+      <c r="W27" s="408"/>
+      <c r="X27" s="408"/>
       <c r="Y27" s="76" t="s">
         <v>2</v>
       </c>
@@ -6200,10 +6207,10 @@
         <v>147</v>
       </c>
       <c r="AN27" s="277"/>
-      <c r="AO27" s="413"/>
-      <c r="AP27" s="402"/>
-      <c r="AQ27" s="403"/>
-      <c r="AR27" s="403"/>
+      <c r="AO27" s="435"/>
+      <c r="AP27" s="407"/>
+      <c r="AQ27" s="408"/>
+      <c r="AR27" s="408"/>
       <c r="AS27" s="76" t="s">
         <v>2</v>
       </c>
@@ -6225,16 +6232,16 @@
       <c r="BI27" s="147"/>
     </row>
     <row r="28" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="432" t="s">
+      <c r="A28" s="436" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="394">
+      <c r="B28" s="399">
         <v>1</v>
       </c>
-      <c r="C28" s="396" t="s">
+      <c r="C28" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="396" t="s">
+      <c r="D28" s="401" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -6271,16 +6278,16 @@
       <c r="R28" s="67"/>
       <c r="S28" s="319"/>
       <c r="T28" s="195"/>
-      <c r="U28" s="409" t="s">
+      <c r="U28" s="415" t="s">
         <v>7</v>
       </c>
-      <c r="V28" s="401">
+      <c r="V28" s="406">
         <v>1</v>
       </c>
-      <c r="W28" s="400" t="s">
+      <c r="W28" s="405" t="s">
         <v>31</v>
       </c>
-      <c r="X28" s="400" t="s">
+      <c r="X28" s="405" t="s">
         <v>32</v>
       </c>
       <c r="Y28" s="80" t="s">
@@ -6301,16 +6308,16 @@
       <c r="AL28" s="94"/>
       <c r="AM28" s="45"/>
       <c r="AN28" s="149"/>
-      <c r="AO28" s="409" t="s">
+      <c r="AO28" s="415" t="s">
         <v>7</v>
       </c>
-      <c r="AP28" s="401">
+      <c r="AP28" s="406">
         <v>1</v>
       </c>
-      <c r="AQ28" s="400" t="s">
+      <c r="AQ28" s="405" t="s">
         <v>31</v>
       </c>
-      <c r="AR28" s="400" t="s">
+      <c r="AR28" s="405" t="s">
         <v>32</v>
       </c>
       <c r="AS28" s="80" t="s">
@@ -6334,10 +6341,10 @@
       <c r="BI28" s="147"/>
     </row>
     <row r="29" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="409"/>
-      <c r="B29" s="395"/>
-      <c r="C29" s="397"/>
-      <c r="D29" s="397"/>
+      <c r="A29" s="415"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="402"/>
+      <c r="D29" s="402"/>
       <c r="E29" s="8" t="s">
         <v>2</v>
       </c>
@@ -6374,10 +6381,10 @@
       <c r="R29" s="52"/>
       <c r="S29" s="121"/>
       <c r="T29" s="202"/>
-      <c r="U29" s="409"/>
-      <c r="V29" s="395"/>
-      <c r="W29" s="397"/>
-      <c r="X29" s="397"/>
+      <c r="U29" s="415"/>
+      <c r="V29" s="400"/>
+      <c r="W29" s="402"/>
+      <c r="X29" s="402"/>
       <c r="Y29" s="78" t="s">
         <v>2</v>
       </c>
@@ -6402,10 +6409,10 @@
       <c r="AL29" s="314"/>
       <c r="AM29" s="257"/>
       <c r="AN29" s="202"/>
-      <c r="AO29" s="409"/>
-      <c r="AP29" s="395"/>
-      <c r="AQ29" s="397"/>
-      <c r="AR29" s="397"/>
+      <c r="AO29" s="415"/>
+      <c r="AP29" s="400"/>
+      <c r="AQ29" s="402"/>
+      <c r="AR29" s="402"/>
       <c r="AS29" s="78" t="s">
         <v>2</v>
       </c>
@@ -6431,14 +6438,14 @@
       <c r="BI29" s="147"/>
     </row>
     <row r="30" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="409"/>
-      <c r="B30" s="398">
+      <c r="A30" s="415"/>
+      <c r="B30" s="403">
         <v>2</v>
       </c>
-      <c r="C30" s="399" t="s">
+      <c r="C30" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="399" t="s">
+      <c r="D30" s="404" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -6477,14 +6484,14 @@
       <c r="R30" s="314"/>
       <c r="S30" s="306"/>
       <c r="T30" s="149"/>
-      <c r="U30" s="409"/>
-      <c r="V30" s="398">
+      <c r="U30" s="415"/>
+      <c r="V30" s="403">
         <v>2</v>
       </c>
-      <c r="W30" s="399" t="s">
+      <c r="W30" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="X30" s="399" t="s">
+      <c r="X30" s="404" t="s">
         <v>34</v>
       </c>
       <c r="Y30" s="79" t="s">
@@ -6511,14 +6518,14 @@
       <c r="AL30" s="94"/>
       <c r="AM30" s="45"/>
       <c r="AN30" s="149"/>
-      <c r="AO30" s="409"/>
-      <c r="AP30" s="398">
+      <c r="AO30" s="415"/>
+      <c r="AP30" s="403">
         <v>2</v>
       </c>
-      <c r="AQ30" s="399" t="s">
+      <c r="AQ30" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="AR30" s="399" t="s">
+      <c r="AR30" s="404" t="s">
         <v>34</v>
       </c>
       <c r="AS30" s="79" t="s">
@@ -6546,10 +6553,10 @@
       <c r="BI30" s="147"/>
     </row>
     <row r="31" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="409"/>
-      <c r="B31" s="395"/>
-      <c r="C31" s="397"/>
-      <c r="D31" s="397"/>
+      <c r="A31" s="415"/>
+      <c r="B31" s="400"/>
+      <c r="C31" s="402"/>
+      <c r="D31" s="402"/>
       <c r="E31" s="9" t="s">
         <v>2</v>
       </c>
@@ -6586,10 +6593,10 @@
       <c r="R31" s="314"/>
       <c r="S31" s="298"/>
       <c r="T31" s="202"/>
-      <c r="U31" s="409"/>
-      <c r="V31" s="395"/>
-      <c r="W31" s="397"/>
-      <c r="X31" s="397"/>
+      <c r="U31" s="415"/>
+      <c r="V31" s="400"/>
+      <c r="W31" s="402"/>
+      <c r="X31" s="402"/>
       <c r="Y31" s="79" t="s">
         <v>2</v>
       </c>
@@ -6614,10 +6621,10 @@
       <c r="AL31" s="314"/>
       <c r="AM31" s="257"/>
       <c r="AN31" s="202"/>
-      <c r="AO31" s="409"/>
-      <c r="AP31" s="395"/>
-      <c r="AQ31" s="397"/>
-      <c r="AR31" s="397"/>
+      <c r="AO31" s="415"/>
+      <c r="AP31" s="400"/>
+      <c r="AQ31" s="402"/>
+      <c r="AR31" s="402"/>
       <c r="AS31" s="79" t="s">
         <v>2</v>
       </c>
@@ -6643,14 +6650,14 @@
       <c r="BI31" s="147"/>
     </row>
     <row r="32" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="409"/>
-      <c r="B32" s="398">
+      <c r="A32" s="415"/>
+      <c r="B32" s="403">
         <v>3</v>
       </c>
-      <c r="C32" s="399" t="s">
+      <c r="C32" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="399" t="s">
+      <c r="D32" s="404" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -6689,14 +6696,14 @@
       <c r="R32" s="94"/>
       <c r="S32" s="306"/>
       <c r="T32" s="88"/>
-      <c r="U32" s="409"/>
-      <c r="V32" s="398">
+      <c r="U32" s="415"/>
+      <c r="V32" s="403">
         <v>3</v>
       </c>
-      <c r="W32" s="399" t="s">
+      <c r="W32" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="X32" s="399" t="s">
+      <c r="X32" s="404" t="s">
         <v>59</v>
       </c>
       <c r="Y32" s="79" t="s">
@@ -6723,14 +6730,14 @@
       <c r="AL32" s="314"/>
       <c r="AM32" s="257"/>
       <c r="AN32" s="88"/>
-      <c r="AO32" s="409"/>
-      <c r="AP32" s="398">
+      <c r="AO32" s="415"/>
+      <c r="AP32" s="403">
         <v>3</v>
       </c>
-      <c r="AQ32" s="399" t="s">
+      <c r="AQ32" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="399" t="s">
+      <c r="AR32" s="404" t="s">
         <v>59</v>
       </c>
       <c r="AS32" s="79" t="s">
@@ -6758,10 +6765,10 @@
       <c r="BI32" s="147"/>
     </row>
     <row r="33" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="409"/>
-      <c r="B33" s="395"/>
-      <c r="C33" s="400"/>
-      <c r="D33" s="400"/>
+      <c r="A33" s="415"/>
+      <c r="B33" s="400"/>
+      <c r="C33" s="405"/>
+      <c r="D33" s="405"/>
       <c r="E33" s="9" t="s">
         <v>2</v>
       </c>
@@ -6798,10 +6805,10 @@
       <c r="R33" s="314"/>
       <c r="S33" s="306"/>
       <c r="T33" s="88"/>
-      <c r="U33" s="409"/>
-      <c r="V33" s="395"/>
-      <c r="W33" s="400"/>
-      <c r="X33" s="400"/>
+      <c r="U33" s="415"/>
+      <c r="V33" s="400"/>
+      <c r="W33" s="405"/>
+      <c r="X33" s="405"/>
       <c r="Y33" s="79" t="s">
         <v>2</v>
       </c>
@@ -6826,10 +6833,10 @@
       <c r="AL33" s="314"/>
       <c r="AM33" s="257"/>
       <c r="AN33" s="88"/>
-      <c r="AO33" s="409"/>
-      <c r="AP33" s="395"/>
-      <c r="AQ33" s="400"/>
-      <c r="AR33" s="400"/>
+      <c r="AO33" s="415"/>
+      <c r="AP33" s="400"/>
+      <c r="AQ33" s="405"/>
+      <c r="AR33" s="405"/>
       <c r="AS33" s="79" t="s">
         <v>2</v>
       </c>
@@ -6855,14 +6862,14 @@
       <c r="BI33" s="147"/>
     </row>
     <row r="34" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="409"/>
-      <c r="B34" s="398">
+      <c r="A34" s="415"/>
+      <c r="B34" s="403">
         <v>4</v>
       </c>
-      <c r="C34" s="399" t="s">
+      <c r="C34" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="399" t="s">
+      <c r="D34" s="404" t="s">
         <v>61</v>
       </c>
       <c r="E34" s="9" t="s">
@@ -6901,14 +6908,14 @@
       <c r="R34" s="94"/>
       <c r="S34" s="306"/>
       <c r="T34" s="88"/>
-      <c r="U34" s="409"/>
-      <c r="V34" s="398">
+      <c r="U34" s="415"/>
+      <c r="V34" s="403">
         <v>4</v>
       </c>
-      <c r="W34" s="399" t="s">
+      <c r="W34" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="X34" s="399" t="s">
+      <c r="X34" s="404" t="s">
         <v>61</v>
       </c>
       <c r="Y34" s="79" t="s">
@@ -6935,14 +6942,14 @@
       <c r="AL34" s="314"/>
       <c r="AM34" s="257"/>
       <c r="AN34" s="88"/>
-      <c r="AO34" s="409"/>
-      <c r="AP34" s="398">
+      <c r="AO34" s="415"/>
+      <c r="AP34" s="403">
         <v>4</v>
       </c>
-      <c r="AQ34" s="399" t="s">
+      <c r="AQ34" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="AR34" s="399" t="s">
+      <c r="AR34" s="404" t="s">
         <v>61</v>
       </c>
       <c r="AS34" s="79" t="s">
@@ -6970,10 +6977,10 @@
       <c r="BI34" s="147"/>
     </row>
     <row r="35" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="409"/>
-      <c r="B35" s="395"/>
-      <c r="C35" s="397"/>
-      <c r="D35" s="397"/>
+      <c r="A35" s="415"/>
+      <c r="B35" s="400"/>
+      <c r="C35" s="402"/>
+      <c r="D35" s="402"/>
       <c r="E35" s="9" t="s">
         <v>2</v>
       </c>
@@ -7010,10 +7017,10 @@
       <c r="R35" s="314"/>
       <c r="S35" s="304"/>
       <c r="T35" s="88"/>
-      <c r="U35" s="409"/>
-      <c r="V35" s="395"/>
-      <c r="W35" s="397"/>
-      <c r="X35" s="397"/>
+      <c r="U35" s="415"/>
+      <c r="V35" s="400"/>
+      <c r="W35" s="402"/>
+      <c r="X35" s="402"/>
       <c r="Y35" s="79" t="s">
         <v>2</v>
       </c>
@@ -7038,10 +7045,10 @@
       <c r="AL35" s="314"/>
       <c r="AM35" s="257"/>
       <c r="AN35" s="88"/>
-      <c r="AO35" s="409"/>
-      <c r="AP35" s="395"/>
-      <c r="AQ35" s="397"/>
-      <c r="AR35" s="397"/>
+      <c r="AO35" s="415"/>
+      <c r="AP35" s="400"/>
+      <c r="AQ35" s="402"/>
+      <c r="AR35" s="402"/>
       <c r="AS35" s="79" t="s">
         <v>2</v>
       </c>
@@ -7067,14 +7074,14 @@
       <c r="BI35" s="147"/>
     </row>
     <row r="36" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="409"/>
-      <c r="B36" s="398">
+      <c r="A36" s="415"/>
+      <c r="B36" s="403">
         <v>5</v>
       </c>
-      <c r="C36" s="399" t="s">
+      <c r="C36" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="399" t="s">
+      <c r="D36" s="404" t="s">
         <v>62</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -7097,14 +7104,14 @@
       <c r="R36" s="314"/>
       <c r="S36" s="305"/>
       <c r="T36" s="87"/>
-      <c r="U36" s="409"/>
-      <c r="V36" s="398">
+      <c r="U36" s="415"/>
+      <c r="V36" s="403">
         <v>5</v>
       </c>
-      <c r="W36" s="399" t="s">
+      <c r="W36" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="X36" s="399" t="s">
+      <c r="X36" s="404" t="s">
         <v>62</v>
       </c>
       <c r="Y36" s="79" t="s">
@@ -7131,14 +7138,14 @@
       <c r="AL36" s="314"/>
       <c r="AM36" s="257"/>
       <c r="AN36" s="87"/>
-      <c r="AO36" s="409"/>
-      <c r="AP36" s="398">
+      <c r="AO36" s="415"/>
+      <c r="AP36" s="403">
         <v>5</v>
       </c>
-      <c r="AQ36" s="399" t="s">
+      <c r="AQ36" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="AR36" s="399" t="s">
+      <c r="AR36" s="404" t="s">
         <v>62</v>
       </c>
       <c r="AS36" s="79" t="s">
@@ -7166,10 +7173,10 @@
       <c r="BI36" s="147"/>
     </row>
     <row r="37" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="409"/>
-      <c r="B37" s="395"/>
-      <c r="C37" s="397"/>
-      <c r="D37" s="397"/>
+      <c r="A37" s="415"/>
+      <c r="B37" s="400"/>
+      <c r="C37" s="402"/>
+      <c r="D37" s="402"/>
       <c r="E37" s="9" t="s">
         <v>2</v>
       </c>
@@ -7188,10 +7195,10 @@
       <c r="R37" s="314"/>
       <c r="S37" s="270"/>
       <c r="T37" s="203"/>
-      <c r="U37" s="409"/>
-      <c r="V37" s="395"/>
-      <c r="W37" s="397"/>
-      <c r="X37" s="397"/>
+      <c r="U37" s="415"/>
+      <c r="V37" s="400"/>
+      <c r="W37" s="402"/>
+      <c r="X37" s="402"/>
       <c r="Y37" s="79" t="s">
         <v>2</v>
       </c>
@@ -7210,10 +7217,10 @@
       <c r="AL37" s="314"/>
       <c r="AM37" s="257"/>
       <c r="AN37" s="203"/>
-      <c r="AO37" s="409"/>
-      <c r="AP37" s="395"/>
-      <c r="AQ37" s="397"/>
-      <c r="AR37" s="397"/>
+      <c r="AO37" s="415"/>
+      <c r="AP37" s="400"/>
+      <c r="AQ37" s="402"/>
+      <c r="AR37" s="402"/>
       <c r="AS37" s="79" t="s">
         <v>2</v>
       </c>
@@ -7235,14 +7242,14 @@
       <c r="BI37" s="147"/>
     </row>
     <row r="38" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="409"/>
-      <c r="B38" s="401">
+      <c r="A38" s="415"/>
+      <c r="B38" s="406">
         <v>6</v>
       </c>
-      <c r="C38" s="400" t="s">
+      <c r="C38" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="400" t="s">
+      <c r="D38" s="405" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -7263,14 +7270,14 @@
       <c r="R38" s="314"/>
       <c r="S38" s="127"/>
       <c r="T38" s="88"/>
-      <c r="U38" s="409"/>
-      <c r="V38" s="401">
+      <c r="U38" s="415"/>
+      <c r="V38" s="406">
         <v>6</v>
       </c>
-      <c r="W38" s="400" t="s">
+      <c r="W38" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="X38" s="399" t="s">
+      <c r="X38" s="404" t="s">
         <v>63</v>
       </c>
       <c r="Y38" s="79" t="s">
@@ -7291,14 +7298,14 @@
       <c r="AL38" s="314"/>
       <c r="AM38" s="257"/>
       <c r="AN38" s="88"/>
-      <c r="AO38" s="409"/>
-      <c r="AP38" s="401">
+      <c r="AO38" s="415"/>
+      <c r="AP38" s="406">
         <v>6</v>
       </c>
-      <c r="AQ38" s="400" t="s">
+      <c r="AQ38" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="AR38" s="400" t="s">
+      <c r="AR38" s="405" t="s">
         <v>63</v>
       </c>
       <c r="AS38" s="79" t="s">
@@ -7322,10 +7329,10 @@
       <c r="BI38" s="147"/>
     </row>
     <row r="39" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="410"/>
-      <c r="B39" s="402"/>
-      <c r="C39" s="403"/>
-      <c r="D39" s="403"/>
+      <c r="A39" s="416"/>
+      <c r="B39" s="407"/>
+      <c r="C39" s="408"/>
+      <c r="D39" s="408"/>
       <c r="E39" s="3" t="s">
         <v>2</v>
       </c>
@@ -7344,10 +7351,10 @@
       <c r="R39" s="297"/>
       <c r="S39" s="112"/>
       <c r="T39" s="204"/>
-      <c r="U39" s="410"/>
-      <c r="V39" s="402"/>
-      <c r="W39" s="403"/>
-      <c r="X39" s="403"/>
+      <c r="U39" s="416"/>
+      <c r="V39" s="407"/>
+      <c r="W39" s="408"/>
+      <c r="X39" s="408"/>
       <c r="Y39" s="76" t="s">
         <v>2</v>
       </c>
@@ -7366,10 +7373,10 @@
       <c r="AL39" s="297"/>
       <c r="AM39" s="103"/>
       <c r="AN39" s="204"/>
-      <c r="AO39" s="410"/>
-      <c r="AP39" s="402"/>
-      <c r="AQ39" s="403"/>
-      <c r="AR39" s="403"/>
+      <c r="AO39" s="416"/>
+      <c r="AP39" s="407"/>
+      <c r="AQ39" s="408"/>
+      <c r="AR39" s="408"/>
       <c r="AS39" s="76" t="s">
         <v>2</v>
       </c>
@@ -7391,16 +7398,16 @@
       <c r="BI39" s="147"/>
     </row>
     <row r="40" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="406" t="s">
+      <c r="A40" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="394">
+      <c r="B40" s="399">
         <v>1</v>
       </c>
-      <c r="C40" s="396" t="s">
+      <c r="C40" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="396" t="s">
+      <c r="D40" s="401" t="s">
         <v>32</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -7445,16 +7452,16 @@
         <v>358</v>
       </c>
       <c r="T40" s="326"/>
-      <c r="U40" s="406" t="s">
+      <c r="U40" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="394">
+      <c r="V40" s="399">
         <v>1</v>
       </c>
-      <c r="W40" s="396" t="s">
+      <c r="W40" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="X40" s="396" t="s">
+      <c r="X40" s="401" t="s">
         <v>32</v>
       </c>
       <c r="Y40" s="77" t="s">
@@ -7475,16 +7482,16 @@
       <c r="AL40" s="133"/>
       <c r="AM40" s="134"/>
       <c r="AN40" s="326"/>
-      <c r="AO40" s="406" t="s">
+      <c r="AO40" s="412" t="s">
         <v>8</v>
       </c>
-      <c r="AP40" s="394">
+      <c r="AP40" s="399">
         <v>1</v>
       </c>
-      <c r="AQ40" s="396" t="s">
+      <c r="AQ40" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="AR40" s="396" t="s">
+      <c r="AR40" s="401" t="s">
         <v>32</v>
       </c>
       <c r="AS40" s="77" t="s">
@@ -7508,10 +7515,10 @@
       <c r="BI40" s="147"/>
     </row>
     <row r="41" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="407"/>
-      <c r="B41" s="395"/>
-      <c r="C41" s="397"/>
-      <c r="D41" s="397"/>
+      <c r="A41" s="413"/>
+      <c r="B41" s="400"/>
+      <c r="C41" s="402"/>
+      <c r="D41" s="402"/>
       <c r="E41" s="8" t="s">
         <v>2</v>
       </c>
@@ -7538,10 +7545,10 @@
         <v>143</v>
       </c>
       <c r="T41" s="276"/>
-      <c r="U41" s="407"/>
-      <c r="V41" s="395"/>
-      <c r="W41" s="397"/>
-      <c r="X41" s="397"/>
+      <c r="U41" s="413"/>
+      <c r="V41" s="400"/>
+      <c r="W41" s="402"/>
+      <c r="X41" s="402"/>
       <c r="Y41" s="78" t="s">
         <v>2</v>
       </c>
@@ -7568,10 +7575,10 @@
       <c r="AL41" s="118"/>
       <c r="AM41" s="304"/>
       <c r="AN41" s="276"/>
-      <c r="AO41" s="407"/>
-      <c r="AP41" s="395"/>
-      <c r="AQ41" s="397"/>
-      <c r="AR41" s="397"/>
+      <c r="AO41" s="413"/>
+      <c r="AP41" s="400"/>
+      <c r="AQ41" s="402"/>
+      <c r="AR41" s="402"/>
       <c r="AS41" s="78" t="s">
         <v>2</v>
       </c>
@@ -7593,14 +7600,14 @@
       <c r="BI41" s="147"/>
     </row>
     <row r="42" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="407"/>
-      <c r="B42" s="398">
+      <c r="A42" s="413"/>
+      <c r="B42" s="403">
         <v>2</v>
       </c>
-      <c r="C42" s="399" t="s">
+      <c r="C42" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="399" t="s">
+      <c r="D42" s="404" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -7645,14 +7652,14 @@
         <v>358</v>
       </c>
       <c r="T42" s="272"/>
-      <c r="U42" s="407"/>
-      <c r="V42" s="398">
+      <c r="U42" s="413"/>
+      <c r="V42" s="403">
         <v>2</v>
       </c>
-      <c r="W42" s="399" t="s">
+      <c r="W42" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="X42" s="399" t="s">
+      <c r="X42" s="404" t="s">
         <v>34</v>
       </c>
       <c r="Y42" s="79" t="s">
@@ -7673,14 +7680,14 @@
       <c r="AL42" s="118"/>
       <c r="AM42" s="117"/>
       <c r="AN42" s="272"/>
-      <c r="AO42" s="407"/>
-      <c r="AP42" s="398">
+      <c r="AO42" s="413"/>
+      <c r="AP42" s="403">
         <v>2</v>
       </c>
-      <c r="AQ42" s="399" t="s">
+      <c r="AQ42" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="AR42" s="399" t="s">
+      <c r="AR42" s="404" t="s">
         <v>34</v>
       </c>
       <c r="AS42" s="79" t="s">
@@ -7712,10 +7719,10 @@
       <c r="BI42" s="147"/>
     </row>
     <row r="43" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="407"/>
-      <c r="B43" s="395"/>
-      <c r="C43" s="397"/>
-      <c r="D43" s="397"/>
+      <c r="A43" s="413"/>
+      <c r="B43" s="400"/>
+      <c r="C43" s="402"/>
+      <c r="D43" s="402"/>
       <c r="E43" s="9" t="s">
         <v>2</v>
       </c>
@@ -7742,10 +7749,10 @@
         <v>143</v>
       </c>
       <c r="T43" s="272"/>
-      <c r="U43" s="407"/>
-      <c r="V43" s="395"/>
-      <c r="W43" s="397"/>
-      <c r="X43" s="397"/>
+      <c r="U43" s="413"/>
+      <c r="V43" s="400"/>
+      <c r="W43" s="402"/>
+      <c r="X43" s="402"/>
       <c r="Y43" s="79" t="s">
         <v>2</v>
       </c>
@@ -7772,10 +7779,10 @@
       <c r="AL43" s="118"/>
       <c r="AM43" s="304"/>
       <c r="AN43" s="272"/>
-      <c r="AO43" s="407"/>
-      <c r="AP43" s="395"/>
-      <c r="AQ43" s="397"/>
-      <c r="AR43" s="397"/>
+      <c r="AO43" s="413"/>
+      <c r="AP43" s="400"/>
+      <c r="AQ43" s="402"/>
+      <c r="AR43" s="402"/>
       <c r="AS43" s="79" t="s">
         <v>2</v>
       </c>
@@ -7805,14 +7812,14 @@
       <c r="BI43" s="147"/>
     </row>
     <row r="44" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="407"/>
-      <c r="B44" s="398">
+      <c r="A44" s="413"/>
+      <c r="B44" s="403">
         <v>3</v>
       </c>
-      <c r="C44" s="399" t="s">
+      <c r="C44" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="399" t="s">
+      <c r="D44" s="404" t="s">
         <v>59</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -7841,14 +7848,14 @@
         <v>358</v>
       </c>
       <c r="T44" s="272"/>
-      <c r="U44" s="407"/>
-      <c r="V44" s="398">
+      <c r="U44" s="413"/>
+      <c r="V44" s="403">
         <v>3</v>
       </c>
-      <c r="W44" s="399" t="s">
+      <c r="W44" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="X44" s="399" t="s">
+      <c r="X44" s="404" t="s">
         <v>59</v>
       </c>
       <c r="Y44" s="79" t="s">
@@ -7877,14 +7884,14 @@
       <c r="AL44" s="118"/>
       <c r="AM44" s="304"/>
       <c r="AN44" s="272"/>
-      <c r="AO44" s="407"/>
-      <c r="AP44" s="398">
+      <c r="AO44" s="413"/>
+      <c r="AP44" s="403">
         <v>3</v>
       </c>
-      <c r="AQ44" s="399" t="s">
+      <c r="AQ44" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="AR44" s="399" t="s">
+      <c r="AR44" s="404" t="s">
         <v>59</v>
       </c>
       <c r="AS44" s="79" t="s">
@@ -7916,10 +7923,10 @@
       <c r="BI44" s="147"/>
     </row>
     <row r="45" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="407"/>
-      <c r="B45" s="395"/>
-      <c r="C45" s="400"/>
-      <c r="D45" s="400"/>
+      <c r="A45" s="413"/>
+      <c r="B45" s="400"/>
+      <c r="C45" s="405"/>
+      <c r="D45" s="405"/>
       <c r="E45" s="9" t="s">
         <v>2</v>
       </c>
@@ -7946,10 +7953,10 @@
         <v>143</v>
       </c>
       <c r="T45" s="272"/>
-      <c r="U45" s="407"/>
-      <c r="V45" s="395"/>
-      <c r="W45" s="400"/>
-      <c r="X45" s="400"/>
+      <c r="U45" s="413"/>
+      <c r="V45" s="400"/>
+      <c r="W45" s="405"/>
+      <c r="X45" s="405"/>
       <c r="Y45" s="79" t="s">
         <v>2</v>
       </c>
@@ -7976,10 +7983,10 @@
       <c r="AL45" s="118"/>
       <c r="AM45" s="304"/>
       <c r="AN45" s="272"/>
-      <c r="AO45" s="407"/>
-      <c r="AP45" s="395"/>
-      <c r="AQ45" s="400"/>
-      <c r="AR45" s="400"/>
+      <c r="AO45" s="413"/>
+      <c r="AP45" s="400"/>
+      <c r="AQ45" s="405"/>
+      <c r="AR45" s="405"/>
       <c r="AS45" s="79" t="s">
         <v>2</v>
       </c>
@@ -8009,14 +8016,14 @@
       <c r="BI45" s="147"/>
     </row>
     <row r="46" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="407"/>
-      <c r="B46" s="398">
+      <c r="A46" s="413"/>
+      <c r="B46" s="403">
         <v>4</v>
       </c>
-      <c r="C46" s="399" t="s">
+      <c r="C46" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="399" t="s">
+      <c r="D46" s="404" t="s">
         <v>61</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -8045,14 +8052,14 @@
         <v>320</v>
       </c>
       <c r="T46" s="272"/>
-      <c r="U46" s="407"/>
-      <c r="V46" s="398">
+      <c r="U46" s="413"/>
+      <c r="V46" s="403">
         <v>4</v>
       </c>
-      <c r="W46" s="399" t="s">
+      <c r="W46" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="X46" s="399" t="s">
+      <c r="X46" s="404" t="s">
         <v>61</v>
       </c>
       <c r="Y46" s="79" t="s">
@@ -8097,14 +8104,14 @@
         <v>143</v>
       </c>
       <c r="AN46" s="272"/>
-      <c r="AO46" s="407"/>
-      <c r="AP46" s="398">
+      <c r="AO46" s="413"/>
+      <c r="AP46" s="403">
         <v>4</v>
       </c>
-      <c r="AQ46" s="399" t="s">
+      <c r="AQ46" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="AR46" s="399" t="s">
+      <c r="AR46" s="404" t="s">
         <v>61</v>
       </c>
       <c r="AS46" s="79" t="s">
@@ -8144,10 +8151,10 @@
       <c r="BI46" s="147"/>
     </row>
     <row r="47" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="407"/>
-      <c r="B47" s="395"/>
-      <c r="C47" s="397"/>
-      <c r="D47" s="397"/>
+      <c r="A47" s="413"/>
+      <c r="B47" s="400"/>
+      <c r="C47" s="402"/>
+      <c r="D47" s="402"/>
       <c r="E47" s="9" t="s">
         <v>2</v>
       </c>
@@ -8166,10 +8173,10 @@
       <c r="R47" s="265"/>
       <c r="S47" s="306"/>
       <c r="T47" s="205"/>
-      <c r="U47" s="407"/>
-      <c r="V47" s="395"/>
-      <c r="W47" s="397"/>
-      <c r="X47" s="397"/>
+      <c r="U47" s="413"/>
+      <c r="V47" s="400"/>
+      <c r="W47" s="402"/>
+      <c r="X47" s="402"/>
       <c r="Y47" s="79" t="s">
         <v>2</v>
       </c>
@@ -8188,10 +8195,10 @@
       <c r="AL47" s="314"/>
       <c r="AM47" s="304"/>
       <c r="AN47" s="205"/>
-      <c r="AO47" s="407"/>
-      <c r="AP47" s="395"/>
-      <c r="AQ47" s="397"/>
-      <c r="AR47" s="397"/>
+      <c r="AO47" s="413"/>
+      <c r="AP47" s="400"/>
+      <c r="AQ47" s="402"/>
+      <c r="AR47" s="402"/>
       <c r="AS47" s="79" t="s">
         <v>2</v>
       </c>
@@ -8221,14 +8228,14 @@
       <c r="BI47" s="147"/>
     </row>
     <row r="48" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="407"/>
-      <c r="B48" s="398">
+      <c r="A48" s="413"/>
+      <c r="B48" s="403">
         <v>5</v>
       </c>
-      <c r="C48" s="399" t="s">
+      <c r="C48" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="399" t="s">
+      <c r="D48" s="404" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -8249,14 +8256,14 @@
       <c r="R48" s="266"/>
       <c r="S48" s="313"/>
       <c r="T48" s="150"/>
-      <c r="U48" s="407"/>
-      <c r="V48" s="398">
+      <c r="U48" s="413"/>
+      <c r="V48" s="403">
         <v>5</v>
       </c>
-      <c r="W48" s="399" t="s">
+      <c r="W48" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="X48" s="399" t="s">
+      <c r="X48" s="404" t="s">
         <v>62</v>
       </c>
       <c r="Y48" s="79" t="s">
@@ -8301,14 +8308,14 @@
         <v>143</v>
       </c>
       <c r="AN48" s="150"/>
-      <c r="AO48" s="407"/>
-      <c r="AP48" s="398">
+      <c r="AO48" s="413"/>
+      <c r="AP48" s="403">
         <v>5</v>
       </c>
-      <c r="AQ48" s="399" t="s">
+      <c r="AQ48" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="AR48" s="399" t="s">
+      <c r="AR48" s="404" t="s">
         <v>62</v>
       </c>
       <c r="AS48" s="79" t="s">
@@ -8348,10 +8355,10 @@
       <c r="BI48" s="147"/>
     </row>
     <row r="49" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="407"/>
-      <c r="B49" s="395"/>
-      <c r="C49" s="397"/>
-      <c r="D49" s="397"/>
+      <c r="A49" s="413"/>
+      <c r="B49" s="400"/>
+      <c r="C49" s="402"/>
+      <c r="D49" s="402"/>
       <c r="E49" s="9" t="s">
         <v>2</v>
       </c>
@@ -8386,10 +8393,10 @@
       <c r="R49" s="265"/>
       <c r="S49" s="306"/>
       <c r="T49" s="276"/>
-      <c r="U49" s="407"/>
-      <c r="V49" s="395"/>
-      <c r="W49" s="397"/>
-      <c r="X49" s="397"/>
+      <c r="U49" s="413"/>
+      <c r="V49" s="400"/>
+      <c r="W49" s="402"/>
+      <c r="X49" s="402"/>
       <c r="Y49" s="79" t="s">
         <v>2</v>
       </c>
@@ -8424,10 +8431,10 @@
         <v>143</v>
       </c>
       <c r="AN49" s="276"/>
-      <c r="AO49" s="407"/>
-      <c r="AP49" s="395"/>
-      <c r="AQ49" s="397"/>
-      <c r="AR49" s="397"/>
+      <c r="AO49" s="413"/>
+      <c r="AP49" s="400"/>
+      <c r="AQ49" s="402"/>
+      <c r="AR49" s="402"/>
       <c r="AS49" s="79" t="s">
         <v>2</v>
       </c>
@@ -8465,14 +8472,14 @@
       <c r="BI49" s="147"/>
     </row>
     <row r="50" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="407"/>
-      <c r="B50" s="401">
+      <c r="A50" s="413"/>
+      <c r="B50" s="406">
         <v>6</v>
       </c>
-      <c r="C50" s="400" t="s">
+      <c r="C50" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="400" t="s">
+      <c r="D50" s="405" t="s">
         <v>63</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -8493,14 +8500,14 @@
       <c r="R50" s="314"/>
       <c r="S50" s="306"/>
       <c r="T50" s="272"/>
-      <c r="U50" s="407"/>
-      <c r="V50" s="401">
+      <c r="U50" s="413"/>
+      <c r="V50" s="406">
         <v>6</v>
       </c>
-      <c r="W50" s="400" t="s">
+      <c r="W50" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="X50" s="400" t="s">
+      <c r="X50" s="405" t="s">
         <v>63</v>
       </c>
       <c r="Y50" s="79" t="s">
@@ -8529,14 +8536,14 @@
       <c r="AL50" s="314"/>
       <c r="AM50" s="304"/>
       <c r="AN50" s="272"/>
-      <c r="AO50" s="407"/>
-      <c r="AP50" s="401">
+      <c r="AO50" s="413"/>
+      <c r="AP50" s="406">
         <v>6</v>
       </c>
-      <c r="AQ50" s="400" t="s">
+      <c r="AQ50" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="AR50" s="400" t="s">
+      <c r="AR50" s="405" t="s">
         <v>63</v>
       </c>
       <c r="AS50" s="79" t="s">
@@ -8560,10 +8567,10 @@
       <c r="BI50" s="147"/>
     </row>
     <row r="51" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="408"/>
-      <c r="B51" s="402"/>
-      <c r="C51" s="403"/>
-      <c r="D51" s="403"/>
+      <c r="A51" s="414"/>
+      <c r="B51" s="407"/>
+      <c r="C51" s="408"/>
+      <c r="D51" s="408"/>
       <c r="E51" s="3" t="s">
         <v>2</v>
       </c>
@@ -8598,10 +8605,10 @@
       <c r="R51" s="297"/>
       <c r="S51" s="289"/>
       <c r="T51" s="47"/>
-      <c r="U51" s="408"/>
-      <c r="V51" s="402"/>
-      <c r="W51" s="403"/>
-      <c r="X51" s="403"/>
+      <c r="U51" s="414"/>
+      <c r="V51" s="407"/>
+      <c r="W51" s="408"/>
+      <c r="X51" s="408"/>
       <c r="Y51" s="76" t="s">
         <v>2</v>
       </c>
@@ -8636,10 +8643,10 @@
         <v>143</v>
       </c>
       <c r="AN51" s="47"/>
-      <c r="AO51" s="408"/>
-      <c r="AP51" s="402"/>
-      <c r="AQ51" s="403"/>
-      <c r="AR51" s="403"/>
+      <c r="AO51" s="414"/>
+      <c r="AP51" s="407"/>
+      <c r="AQ51" s="408"/>
+      <c r="AR51" s="408"/>
       <c r="AS51" s="76" t="s">
         <v>2</v>
       </c>
@@ -8669,16 +8676,16 @@
       <c r="BI51" s="147"/>
     </row>
     <row r="52" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="433" t="s">
+      <c r="A52" s="409" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="394">
+      <c r="B52" s="399">
         <v>1</v>
       </c>
-      <c r="C52" s="396" t="s">
+      <c r="C52" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="396" t="s">
+      <c r="D52" s="401" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -8715,16 +8722,16 @@
       <c r="R52" s="324"/>
       <c r="S52" s="134"/>
       <c r="T52" s="356"/>
-      <c r="U52" s="433" t="s">
+      <c r="U52" s="409" t="s">
         <v>9</v>
       </c>
-      <c r="V52" s="394">
+      <c r="V52" s="399">
         <v>1</v>
       </c>
-      <c r="W52" s="396" t="s">
+      <c r="W52" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="X52" s="396" t="s">
+      <c r="X52" s="401" t="s">
         <v>32</v>
       </c>
       <c r="Y52" s="373" t="s">
@@ -8761,16 +8768,16 @@
         <v>134</v>
       </c>
       <c r="AN52" s="206"/>
-      <c r="AO52" s="404" t="s">
+      <c r="AO52" s="410" t="s">
         <v>9</v>
       </c>
-      <c r="AP52" s="401">
+      <c r="AP52" s="406">
         <v>1</v>
       </c>
-      <c r="AQ52" s="400" t="s">
+      <c r="AQ52" s="405" t="s">
         <v>31</v>
       </c>
-      <c r="AR52" s="400" t="s">
+      <c r="AR52" s="405" t="s">
         <v>32</v>
       </c>
       <c r="AS52" s="80" t="s">
@@ -8794,10 +8801,10 @@
       <c r="BI52" s="147"/>
     </row>
     <row r="53" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="404"/>
-      <c r="B53" s="395"/>
-      <c r="C53" s="397"/>
-      <c r="D53" s="397"/>
+      <c r="A53" s="410"/>
+      <c r="B53" s="400"/>
+      <c r="C53" s="402"/>
+      <c r="D53" s="402"/>
       <c r="E53" s="8" t="s">
         <v>2</v>
       </c>
@@ -8832,10 +8839,10 @@
       <c r="R53" s="314"/>
       <c r="S53" s="279"/>
       <c r="T53" s="285"/>
-      <c r="U53" s="404"/>
-      <c r="V53" s="395"/>
-      <c r="W53" s="397"/>
-      <c r="X53" s="397"/>
+      <c r="U53" s="410"/>
+      <c r="V53" s="400"/>
+      <c r="W53" s="402"/>
+      <c r="X53" s="402"/>
       <c r="Y53" s="42" t="s">
         <v>2</v>
       </c>
@@ -8870,10 +8877,10 @@
         <v>134</v>
       </c>
       <c r="AN53" s="206"/>
-      <c r="AO53" s="404"/>
-      <c r="AP53" s="395"/>
-      <c r="AQ53" s="397"/>
-      <c r="AR53" s="397"/>
+      <c r="AO53" s="410"/>
+      <c r="AP53" s="400"/>
+      <c r="AQ53" s="402"/>
+      <c r="AR53" s="402"/>
       <c r="AS53" s="78" t="s">
         <v>2</v>
       </c>
@@ -8895,14 +8902,14 @@
       <c r="BI53" s="147"/>
     </row>
     <row r="54" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="404"/>
-      <c r="B54" s="398">
+      <c r="A54" s="410"/>
+      <c r="B54" s="403">
         <v>2</v>
       </c>
-      <c r="C54" s="399" t="s">
+      <c r="C54" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="399" t="s">
+      <c r="D54" s="404" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="9" t="s">
@@ -8939,14 +8946,14 @@
       <c r="R54" s="302"/>
       <c r="S54" s="257"/>
       <c r="T54" s="275"/>
-      <c r="U54" s="404"/>
-      <c r="V54" s="398">
+      <c r="U54" s="410"/>
+      <c r="V54" s="403">
         <v>2</v>
       </c>
-      <c r="W54" s="399" t="s">
+      <c r="W54" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="X54" s="399" t="s">
+      <c r="X54" s="404" t="s">
         <v>34</v>
       </c>
       <c r="Y54" s="79" t="s">
@@ -8983,14 +8990,14 @@
         <v>134</v>
       </c>
       <c r="AN54" s="87"/>
-      <c r="AO54" s="404"/>
-      <c r="AP54" s="398">
+      <c r="AO54" s="410"/>
+      <c r="AP54" s="403">
         <v>2</v>
       </c>
-      <c r="AQ54" s="399" t="s">
+      <c r="AQ54" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="AR54" s="399" t="s">
+      <c r="AR54" s="404" t="s">
         <v>34</v>
       </c>
       <c r="AS54" s="79" t="s">
@@ -9022,10 +9029,10 @@
       <c r="BI54" s="147"/>
     </row>
     <row r="55" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="404"/>
-      <c r="B55" s="395"/>
-      <c r="C55" s="397"/>
-      <c r="D55" s="397"/>
+      <c r="A55" s="410"/>
+      <c r="B55" s="400"/>
+      <c r="C55" s="402"/>
+      <c r="D55" s="402"/>
       <c r="E55" s="9" t="s">
         <v>2</v>
       </c>
@@ -9060,10 +9067,10 @@
       <c r="R55" s="314"/>
       <c r="S55" s="279"/>
       <c r="T55" s="275"/>
-      <c r="U55" s="404"/>
-      <c r="V55" s="395"/>
-      <c r="W55" s="397"/>
-      <c r="X55" s="397"/>
+      <c r="U55" s="410"/>
+      <c r="V55" s="400"/>
+      <c r="W55" s="402"/>
+      <c r="X55" s="402"/>
       <c r="Y55" s="79" t="s">
         <v>2</v>
       </c>
@@ -9098,10 +9105,10 @@
         <v>134</v>
       </c>
       <c r="AN55" s="87"/>
-      <c r="AO55" s="404"/>
-      <c r="AP55" s="395"/>
-      <c r="AQ55" s="397"/>
-      <c r="AR55" s="397"/>
+      <c r="AO55" s="410"/>
+      <c r="AP55" s="400"/>
+      <c r="AQ55" s="402"/>
+      <c r="AR55" s="402"/>
       <c r="AS55" s="79" t="s">
         <v>2</v>
       </c>
@@ -9123,14 +9130,14 @@
       <c r="BI55" s="147"/>
     </row>
     <row r="56" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="404"/>
-      <c r="B56" s="398">
+      <c r="A56" s="410"/>
+      <c r="B56" s="403">
         <v>3</v>
       </c>
-      <c r="C56" s="399" t="s">
+      <c r="C56" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="399" t="s">
+      <c r="D56" s="404" t="s">
         <v>59</v>
       </c>
       <c r="E56" s="9" t="s">
@@ -9175,14 +9182,14 @@
         <v>143</v>
       </c>
       <c r="T56" s="286"/>
-      <c r="U56" s="404"/>
-      <c r="V56" s="398">
+      <c r="U56" s="410"/>
+      <c r="V56" s="403">
         <v>3</v>
       </c>
-      <c r="W56" s="399" t="s">
+      <c r="W56" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="X56" s="399" t="s">
+      <c r="X56" s="404" t="s">
         <v>59</v>
       </c>
       <c r="Y56" s="79" t="s">
@@ -9227,14 +9234,14 @@
         <v>147</v>
       </c>
       <c r="AN56" s="207"/>
-      <c r="AO56" s="404"/>
-      <c r="AP56" s="398">
+      <c r="AO56" s="410"/>
+      <c r="AP56" s="403">
         <v>3</v>
       </c>
-      <c r="AQ56" s="399" t="s">
+      <c r="AQ56" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="399" t="s">
+      <c r="AR56" s="404" t="s">
         <v>59</v>
       </c>
       <c r="AS56" s="79" t="s">
@@ -9266,10 +9273,10 @@
       <c r="BI56" s="147"/>
     </row>
     <row r="57" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="404"/>
-      <c r="B57" s="395"/>
-      <c r="C57" s="400"/>
-      <c r="D57" s="400"/>
+      <c r="A57" s="410"/>
+      <c r="B57" s="400"/>
+      <c r="C57" s="405"/>
+      <c r="D57" s="405"/>
       <c r="E57" s="9" t="s">
         <v>2</v>
       </c>
@@ -9304,10 +9311,10 @@
       <c r="R57" s="302"/>
       <c r="S57" s="257"/>
       <c r="T57" s="276"/>
-      <c r="U57" s="404"/>
-      <c r="V57" s="395"/>
-      <c r="W57" s="400"/>
-      <c r="X57" s="400"/>
+      <c r="U57" s="410"/>
+      <c r="V57" s="400"/>
+      <c r="W57" s="405"/>
+      <c r="X57" s="405"/>
       <c r="Y57" s="79" t="s">
         <v>2</v>
       </c>
@@ -9342,10 +9349,10 @@
         <v>147</v>
       </c>
       <c r="AN57" s="88"/>
-      <c r="AO57" s="404"/>
-      <c r="AP57" s="395"/>
-      <c r="AQ57" s="400"/>
-      <c r="AR57" s="400"/>
+      <c r="AO57" s="410"/>
+      <c r="AP57" s="400"/>
+      <c r="AQ57" s="405"/>
+      <c r="AR57" s="405"/>
       <c r="AS57" s="79" t="s">
         <v>2</v>
       </c>
@@ -9367,14 +9374,14 @@
       <c r="BI57" s="147"/>
     </row>
     <row r="58" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="404"/>
-      <c r="B58" s="398">
+      <c r="A58" s="410"/>
+      <c r="B58" s="403">
         <v>4</v>
       </c>
-      <c r="C58" s="399" t="s">
+      <c r="C58" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="399" t="s">
+      <c r="D58" s="404" t="s">
         <v>61</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -9411,14 +9418,14 @@
         <v>143</v>
       </c>
       <c r="T58" s="286"/>
-      <c r="U58" s="404"/>
-      <c r="V58" s="398">
+      <c r="U58" s="410"/>
+      <c r="V58" s="403">
         <v>4</v>
       </c>
-      <c r="W58" s="399" t="s">
+      <c r="W58" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="X58" s="399" t="s">
+      <c r="X58" s="404" t="s">
         <v>61</v>
       </c>
       <c r="Y58" s="79" t="s">
@@ -9455,14 +9462,14 @@
       <c r="AL58" s="177"/>
       <c r="AM58" s="178"/>
       <c r="AN58" s="207"/>
-      <c r="AO58" s="404"/>
-      <c r="AP58" s="398">
+      <c r="AO58" s="410"/>
+      <c r="AP58" s="403">
         <v>4</v>
       </c>
-      <c r="AQ58" s="399" t="s">
+      <c r="AQ58" s="404" t="s">
         <v>60</v>
       </c>
-      <c r="AR58" s="399" t="s">
+      <c r="AR58" s="404" t="s">
         <v>61</v>
       </c>
       <c r="AS58" s="79" t="s">
@@ -9502,10 +9509,10 @@
       <c r="BI58" s="147"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="404"/>
-      <c r="B59" s="395"/>
-      <c r="C59" s="397"/>
-      <c r="D59" s="397"/>
+      <c r="A59" s="410"/>
+      <c r="B59" s="400"/>
+      <c r="C59" s="402"/>
+      <c r="D59" s="402"/>
       <c r="E59" s="9" t="s">
         <v>2</v>
       </c>
@@ -9540,10 +9547,10 @@
       <c r="R59" s="314"/>
       <c r="S59" s="313"/>
       <c r="T59" s="276"/>
-      <c r="U59" s="404"/>
-      <c r="V59" s="395"/>
-      <c r="W59" s="397"/>
-      <c r="X59" s="397"/>
+      <c r="U59" s="410"/>
+      <c r="V59" s="400"/>
+      <c r="W59" s="402"/>
+      <c r="X59" s="402"/>
       <c r="Y59" s="79" t="s">
         <v>2</v>
       </c>
@@ -9570,10 +9577,10 @@
       <c r="AL59" s="314"/>
       <c r="AM59" s="180"/>
       <c r="AN59" s="88"/>
-      <c r="AO59" s="404"/>
-      <c r="AP59" s="395"/>
-      <c r="AQ59" s="397"/>
-      <c r="AR59" s="397"/>
+      <c r="AO59" s="410"/>
+      <c r="AP59" s="400"/>
+      <c r="AQ59" s="402"/>
+      <c r="AR59" s="402"/>
       <c r="AS59" s="79" t="s">
         <v>2</v>
       </c>
@@ -9611,14 +9618,14 @@
       <c r="BI59" s="147"/>
     </row>
     <row r="60" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="404"/>
-      <c r="B60" s="398">
+      <c r="A60" s="410"/>
+      <c r="B60" s="403">
         <v>5</v>
       </c>
-      <c r="C60" s="399" t="s">
+      <c r="C60" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="399" t="s">
+      <c r="D60" s="404" t="s">
         <v>62</v>
       </c>
       <c r="E60" s="9" t="s">
@@ -9639,14 +9646,14 @@
       <c r="R60" s="311"/>
       <c r="S60" s="304"/>
       <c r="T60" s="276"/>
-      <c r="U60" s="404"/>
-      <c r="V60" s="398">
+      <c r="U60" s="410"/>
+      <c r="V60" s="403">
         <v>5</v>
       </c>
-      <c r="W60" s="399" t="s">
+      <c r="W60" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="X60" s="399" t="s">
+      <c r="X60" s="404" t="s">
         <v>62</v>
       </c>
       <c r="Y60" s="42" t="s">
@@ -9667,14 +9674,14 @@
       <c r="AL60" s="311"/>
       <c r="AM60" s="178"/>
       <c r="AN60" s="88"/>
-      <c r="AO60" s="404"/>
-      <c r="AP60" s="398">
+      <c r="AO60" s="410"/>
+      <c r="AP60" s="403">
         <v>5</v>
       </c>
-      <c r="AQ60" s="399" t="s">
+      <c r="AQ60" s="404" t="s">
         <v>35</v>
       </c>
-      <c r="AR60" s="399" t="s">
+      <c r="AR60" s="404" t="s">
         <v>62</v>
       </c>
       <c r="AS60" s="79" t="s">
@@ -9714,10 +9721,10 @@
       <c r="BI60" s="147"/>
     </row>
     <row r="61" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="404"/>
-      <c r="B61" s="395"/>
-      <c r="C61" s="397"/>
-      <c r="D61" s="397"/>
+      <c r="A61" s="410"/>
+      <c r="B61" s="400"/>
+      <c r="C61" s="402"/>
+      <c r="D61" s="402"/>
       <c r="E61" s="9" t="s">
         <v>2</v>
       </c>
@@ -9744,10 +9751,10 @@
       <c r="R61" s="314"/>
       <c r="S61" s="313"/>
       <c r="T61" s="276"/>
-      <c r="U61" s="404"/>
-      <c r="V61" s="395"/>
-      <c r="W61" s="397"/>
-      <c r="X61" s="397"/>
+      <c r="U61" s="410"/>
+      <c r="V61" s="400"/>
+      <c r="W61" s="402"/>
+      <c r="X61" s="402"/>
       <c r="Y61" s="79" t="s">
         <v>2</v>
       </c>
@@ -9766,10 +9773,10 @@
       <c r="AL61" s="314"/>
       <c r="AM61" s="180"/>
       <c r="AN61" s="88"/>
-      <c r="AO61" s="404"/>
-      <c r="AP61" s="395"/>
-      <c r="AQ61" s="397"/>
-      <c r="AR61" s="397"/>
+      <c r="AO61" s="410"/>
+      <c r="AP61" s="400"/>
+      <c r="AQ61" s="402"/>
+      <c r="AR61" s="402"/>
       <c r="AS61" s="79" t="s">
         <v>2</v>
       </c>
@@ -9807,14 +9814,14 @@
       <c r="BI61" s="147"/>
     </row>
     <row r="62" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="404"/>
-      <c r="B62" s="401">
+      <c r="A62" s="410"/>
+      <c r="B62" s="406">
         <v>6</v>
       </c>
-      <c r="C62" s="400" t="s">
+      <c r="C62" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="400" t="s">
+      <c r="D62" s="405" t="s">
         <v>63</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -9835,14 +9842,14 @@
       <c r="R62" s="302"/>
       <c r="S62" s="304"/>
       <c r="T62" s="284"/>
-      <c r="U62" s="404"/>
-      <c r="V62" s="401">
+      <c r="U62" s="410"/>
+      <c r="V62" s="406">
         <v>6</v>
       </c>
-      <c r="W62" s="400" t="s">
+      <c r="W62" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="X62" s="400" t="s">
+      <c r="X62" s="405" t="s">
         <v>63</v>
       </c>
       <c r="Y62" s="79" t="s">
@@ -9863,14 +9870,14 @@
       <c r="AL62" s="311"/>
       <c r="AM62" s="257"/>
       <c r="AN62" s="201"/>
-      <c r="AO62" s="404"/>
-      <c r="AP62" s="401">
+      <c r="AO62" s="410"/>
+      <c r="AP62" s="406">
         <v>6</v>
       </c>
-      <c r="AQ62" s="400" t="s">
+      <c r="AQ62" s="405" t="s">
         <v>12</v>
       </c>
-      <c r="AR62" s="400" t="s">
+      <c r="AR62" s="405" t="s">
         <v>63</v>
       </c>
       <c r="AS62" s="79" t="s">
@@ -9902,10 +9909,10 @@
       <c r="BI62" s="147"/>
     </row>
     <row r="63" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="405"/>
-      <c r="B63" s="402"/>
-      <c r="C63" s="403"/>
-      <c r="D63" s="403"/>
+      <c r="A63" s="411"/>
+      <c r="B63" s="407"/>
+      <c r="C63" s="408"/>
+      <c r="D63" s="408"/>
       <c r="E63" s="3" t="s">
         <v>2</v>
       </c>
@@ -9924,10 +9931,10 @@
       <c r="R63" s="297"/>
       <c r="S63" s="289"/>
       <c r="T63" s="277"/>
-      <c r="U63" s="405"/>
-      <c r="V63" s="402"/>
-      <c r="W63" s="403"/>
-      <c r="X63" s="403"/>
+      <c r="U63" s="411"/>
+      <c r="V63" s="407"/>
+      <c r="W63" s="408"/>
+      <c r="X63" s="408"/>
       <c r="Y63" s="76" t="s">
         <v>2</v>
       </c>
@@ -9946,10 +9953,10 @@
       <c r="AL63" s="297"/>
       <c r="AM63" s="184"/>
       <c r="AN63" s="89"/>
-      <c r="AO63" s="405"/>
-      <c r="AP63" s="402"/>
-      <c r="AQ63" s="403"/>
-      <c r="AR63" s="403"/>
+      <c r="AO63" s="411"/>
+      <c r="AP63" s="407"/>
+      <c r="AQ63" s="408"/>
+      <c r="AR63" s="408"/>
       <c r="AS63" s="76" t="s">
         <v>2</v>
       </c>
@@ -9979,16 +9986,16 @@
       <c r="BI63" s="147"/>
     </row>
     <row r="64" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="391" t="s">
+      <c r="A64" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="394">
+      <c r="B64" s="399">
         <v>1</v>
       </c>
-      <c r="C64" s="396" t="s">
+      <c r="C64" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="396" t="s">
+      <c r="D64" s="401" t="s">
         <v>32</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -10033,16 +10040,16 @@
         <v>166</v>
       </c>
       <c r="T64" s="268"/>
-      <c r="U64" s="391" t="s">
+      <c r="U64" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="V64" s="394">
+      <c r="V64" s="399">
         <v>1</v>
       </c>
-      <c r="W64" s="396" t="s">
+      <c r="W64" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="X64" s="396" t="s">
+      <c r="X64" s="401" t="s">
         <v>32</v>
       </c>
       <c r="Y64" s="77" t="s">
@@ -10079,16 +10086,16 @@
       <c r="AL64" s="287"/>
       <c r="AM64" s="251"/>
       <c r="AN64" s="268"/>
-      <c r="AO64" s="391" t="s">
+      <c r="AO64" s="396" t="s">
         <v>10</v>
       </c>
-      <c r="AP64" s="394">
+      <c r="AP64" s="399">
         <v>1</v>
       </c>
-      <c r="AQ64" s="396" t="s">
+      <c r="AQ64" s="401" t="s">
         <v>31</v>
       </c>
-      <c r="AR64" s="396" t="s">
+      <c r="AR64" s="401" t="s">
         <v>32</v>
       </c>
       <c r="AS64" s="77" t="s">
@@ -10120,10 +10127,10 @@
       <c r="BI64" s="147"/>
     </row>
     <row r="65" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="392"/>
-      <c r="B65" s="395"/>
-      <c r="C65" s="397"/>
-      <c r="D65" s="397"/>
+      <c r="A65" s="397"/>
+      <c r="B65" s="400"/>
+      <c r="C65" s="402"/>
+      <c r="D65" s="402"/>
       <c r="E65" s="8" t="s">
         <v>2</v>
       </c>
@@ -10166,10 +10173,10 @@
         <v>143</v>
       </c>
       <c r="T65" s="202"/>
-      <c r="U65" s="392"/>
-      <c r="V65" s="395"/>
-      <c r="W65" s="397"/>
-      <c r="X65" s="397"/>
+      <c r="U65" s="397"/>
+      <c r="V65" s="400"/>
+      <c r="W65" s="402"/>
+      <c r="X65" s="402"/>
       <c r="Y65" s="78" t="s">
         <v>2</v>
       </c>
@@ -10204,10 +10211,10 @@
       <c r="AL65" s="311"/>
       <c r="AM65" s="161"/>
       <c r="AN65" s="202"/>
-      <c r="AO65" s="392"/>
-      <c r="AP65" s="395"/>
-      <c r="AQ65" s="397"/>
-      <c r="AR65" s="397"/>
+      <c r="AO65" s="397"/>
+      <c r="AP65" s="400"/>
+      <c r="AQ65" s="402"/>
+      <c r="AR65" s="402"/>
       <c r="AS65" s="78" t="s">
         <v>2</v>
       </c>
@@ -10237,14 +10244,14 @@
       <c r="BI65" s="147"/>
     </row>
     <row r="66" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="392"/>
-      <c r="B66" s="398">
+      <c r="A66" s="397"/>
+      <c r="B66" s="403">
         <v>2</v>
       </c>
-      <c r="C66" s="399" t="s">
+      <c r="C66" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="399" t="s">
+      <c r="D66" s="404" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="9" t="s">
@@ -10289,14 +10296,14 @@
         <v>166</v>
       </c>
       <c r="T66" s="276"/>
-      <c r="U66" s="392"/>
-      <c r="V66" s="398">
+      <c r="U66" s="397"/>
+      <c r="V66" s="403">
         <v>2</v>
       </c>
-      <c r="W66" s="399" t="s">
+      <c r="W66" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="X66" s="399" t="s">
+      <c r="X66" s="404" t="s">
         <v>34</v>
       </c>
       <c r="Y66" s="79" t="s">
@@ -10333,14 +10340,14 @@
       <c r="AL66" s="311"/>
       <c r="AM66" s="161"/>
       <c r="AN66" s="276"/>
-      <c r="AO66" s="392"/>
-      <c r="AP66" s="398">
+      <c r="AO66" s="397"/>
+      <c r="AP66" s="403">
         <v>2</v>
       </c>
-      <c r="AQ66" s="399" t="s">
+      <c r="AQ66" s="404" t="s">
         <v>33</v>
       </c>
-      <c r="AR66" s="399" t="s">
+      <c r="AR66" s="404" t="s">
         <v>34</v>
       </c>
       <c r="AS66" s="79" t="s">
@@ -10372,10 +10379,10 @@
       <c r="BI66" s="147"/>
     </row>
     <row r="67" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="392"/>
-      <c r="B67" s="395"/>
-      <c r="C67" s="397"/>
-      <c r="D67" s="397"/>
+      <c r="A67" s="397"/>
+      <c r="B67" s="400"/>
+      <c r="C67" s="402"/>
+      <c r="D67" s="402"/>
       <c r="E67" s="9" t="s">
         <v>2</v>
       </c>
@@ -10418,10 +10425,10 @@
         <v>143</v>
       </c>
       <c r="T67" s="202"/>
-      <c r="U67" s="392"/>
-      <c r="V67" s="395"/>
-      <c r="W67" s="397"/>
-      <c r="X67" s="397"/>
+      <c r="U67" s="397"/>
+      <c r="V67" s="400"/>
+      <c r="W67" s="402"/>
+      <c r="X67" s="402"/>
       <c r="Y67" s="79" t="s">
         <v>2</v>
       </c>
@@ -10456,10 +10463,10 @@
       <c r="AL67" s="311"/>
       <c r="AM67" s="161"/>
       <c r="AN67" s="202"/>
-      <c r="AO67" s="392"/>
-      <c r="AP67" s="395"/>
-      <c r="AQ67" s="397"/>
-      <c r="AR67" s="397"/>
+      <c r="AO67" s="397"/>
+      <c r="AP67" s="400"/>
+      <c r="AQ67" s="402"/>
+      <c r="AR67" s="402"/>
       <c r="AS67" s="79" t="s">
         <v>2</v>
       </c>
@@ -10489,14 +10496,14 @@
       <c r="BI67" s="147"/>
     </row>
     <row r="68" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="392"/>
-      <c r="B68" s="398">
+      <c r="A68" s="397"/>
+      <c r="B68" s="403">
         <v>3</v>
       </c>
-      <c r="C68" s="399" t="s">
+      <c r="C68" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="D68" s="399" t="s">
+      <c r="D68" s="404" t="s">
         <v>59</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -10525,14 +10532,14 @@
       <c r="R68" s="302"/>
       <c r="S68" s="313"/>
       <c r="T68" s="262"/>
-      <c r="U68" s="392"/>
-      <c r="V68" s="398">
+      <c r="U68" s="397"/>
+      <c r="V68" s="403">
         <v>3</v>
       </c>
-      <c r="W68" s="399" t="s">
+      <c r="W68" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="X68" s="399" t="s">
+      <c r="X68" s="404" t="s">
         <v>59</v>
       </c>
       <c r="Y68" s="79" t="s">
@@ -10569,14 +10576,14 @@
         <v>134</v>
       </c>
       <c r="AN68" s="262"/>
-      <c r="AO68" s="392"/>
-      <c r="AP68" s="398">
+      <c r="AO68" s="397"/>
+      <c r="AP68" s="403">
         <v>3</v>
       </c>
-      <c r="AQ68" s="399" t="s">
+      <c r="AQ68" s="404" t="s">
         <v>58</v>
       </c>
-      <c r="AR68" s="399" t="s">
+      <c r="AR68" s="404" t="s">
         <v>59</v>
       </c>
       <c r="AS68" s="79" t="s">
@@ -10616,10 +10623,10 @@
       <c r="BI68" s="147"/>
     </row>
     <row r="69" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="392"/>
-      <c r="B69" s="395"/>
-      <c r="C69" s="400"/>
-      <c r="D69" s="400"/>
+      <c r="A69" s="397"/>
+      <c r="B69" s="400"/>
+      <c r="C69" s="405"/>
+      <c r="D69" s="405"/>
       <c r="E69" s="9" t="s">
         <v>2</v>
       </c>
@@ -10654,10 +10661,10 @@
       <c r="R69" s="314"/>
       <c r="S69" s="115"/>
       <c r="T69" s="208"/>
-      <c r="U69" s="392"/>
-      <c r="V69" s="395"/>
-      <c r="W69" s="400"/>
-      <c r="X69" s="400"/>
+      <c r="U69" s="397"/>
+      <c r="V69" s="400"/>
+      <c r="W69" s="405"/>
+      <c r="X69" s="405"/>
       <c r="Y69" s="79" t="s">
         <v>2</v>
       </c>
@@ -10692,10 +10699,10 @@
         <v>134</v>
       </c>
       <c r="AN69" s="208"/>
-      <c r="AO69" s="392"/>
-      <c r="AP69" s="395"/>
-      <c r="AQ69" s="400"/>
-      <c r="AR69" s="400"/>
+      <c r="AO69" s="397"/>
+      <c r="AP69" s="400"/>
+      <c r="AQ69" s="405"/>
+      <c r="AR69" s="405"/>
       <c r="AS69" s="79" t="s">
         <v>2</v>
       </c>
@@ -10733,14 +10740,14 @@
       <c r="BI69" s="147"/>
     </row>
     <row r="70" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="392"/>
-      <c r="B70" s="398">
+      <c r="A70" s="397"/>
+      <c r="B70" s="403">
         <v>4</v>
       </c>
-      <c r="C70" s="399" t="s">
+      <c r="C70" s="404" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="399" t="s">
+      <c r="D70" s="404" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="9" t="s">
@@ -10769,14 +10776,14 @@
       <c r="R70" s="50"/>
       <c r="S70" s="313"/>
       <c r="T70" s="262"/>
-      <c r="U70" s="392"/>
-      <c r="V70" s="398">
+      <c r="U70" s="397"/>
+      <c r="V70" s="403">
         <v>4</v>
       </c>
-      <c r="W70" s="399" t="s">
+      <c r="W70" s="404" t="s">
         <v>51</v>
       </c>
-      <c r="X70" s="399" t="s">
+      <c r="X70" s="404" t="s">
         <v>35</v>
       </c>
       <c r="Y70" s="79" t="s">
@@ -10813,14 +10820,14 @@
         <v>134</v>
       </c>
       <c r="AN70" s="262"/>
-      <c r="AO70" s="392"/>
-      <c r="AP70" s="398">
+      <c r="AO70" s="397"/>
+      <c r="AP70" s="403">
         <v>4</v>
       </c>
-      <c r="AQ70" s="399" t="s">
+      <c r="AQ70" s="404" t="s">
         <v>51</v>
       </c>
-      <c r="AR70" s="399" t="s">
+      <c r="AR70" s="404" t="s">
         <v>35</v>
       </c>
       <c r="AS70" s="79" t="s">
@@ -10860,10 +10867,10 @@
       <c r="BI70" s="147"/>
     </row>
     <row r="71" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="392"/>
-      <c r="B71" s="395"/>
-      <c r="C71" s="397"/>
-      <c r="D71" s="397"/>
+      <c r="A71" s="397"/>
+      <c r="B71" s="400"/>
+      <c r="C71" s="402"/>
+      <c r="D71" s="402"/>
       <c r="E71" s="9" t="s">
         <v>2</v>
       </c>
@@ -10898,10 +10905,10 @@
       <c r="R71" s="314"/>
       <c r="S71" s="115"/>
       <c r="T71" s="203"/>
-      <c r="U71" s="392"/>
-      <c r="V71" s="395"/>
-      <c r="W71" s="397"/>
-      <c r="X71" s="397"/>
+      <c r="U71" s="397"/>
+      <c r="V71" s="400"/>
+      <c r="W71" s="402"/>
+      <c r="X71" s="402"/>
       <c r="Y71" s="79" t="s">
         <v>2</v>
       </c>
@@ -10936,10 +10943,10 @@
         <v>134</v>
       </c>
       <c r="AN71" s="203"/>
-      <c r="AO71" s="392"/>
-      <c r="AP71" s="395"/>
-      <c r="AQ71" s="397"/>
-      <c r="AR71" s="397"/>
+      <c r="AO71" s="397"/>
+      <c r="AP71" s="400"/>
+      <c r="AQ71" s="402"/>
+      <c r="AR71" s="402"/>
       <c r="AS71" s="79" t="s">
         <v>2</v>
       </c>
@@ -10977,14 +10984,14 @@
       <c r="BI71" s="147"/>
     </row>
     <row r="72" spans="1:61" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="392"/>
-      <c r="B72" s="398">
+      <c r="A72" s="397"/>
+      <c r="B72" s="403">
         <v>5</v>
       </c>
-      <c r="C72" s="399" t="s">
+      <c r="C72" s="404" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="399" t="s">
+      <c r="D72" s="404" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="9" t="s">
@@ -11005,14 +11012,14 @@
       <c r="R72" s="50"/>
       <c r="S72" s="188"/>
       <c r="T72" s="276"/>
-      <c r="U72" s="392"/>
-      <c r="V72" s="398">
+      <c r="U72" s="397"/>
+      <c r="V72" s="403">
         <v>5</v>
       </c>
-      <c r="W72" s="399" t="s">
+      <c r="W72" s="404" t="s">
         <v>52</v>
       </c>
-      <c r="X72" s="399" t="s">
+      <c r="X72" s="404" t="s">
         <v>12</v>
       </c>
       <c r="Y72" s="79" t="s">
@@ -11041,14 +11048,14 @@
         <v>147</v>
       </c>
       <c r="AN72" s="276"/>
-      <c r="AO72" s="392"/>
-      <c r="AP72" s="398">
+      <c r="AO72" s="397"/>
+      <c r="AP72" s="403">
         <v>5</v>
       </c>
-      <c r="AQ72" s="399" t="s">
+      <c r="AQ72" s="404" t="s">
         <v>52</v>
       </c>
-      <c r="AR72" s="399" t="s">
+      <c r="AR72" s="404" t="s">
         <v>12</v>
       </c>
       <c r="AS72" s="79" t="s">
@@ -11088,10 +11095,10 @@
       <c r="BI72" s="147"/>
     </row>
     <row r="73" spans="1:61" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="392"/>
-      <c r="B73" s="395"/>
-      <c r="C73" s="397"/>
-      <c r="D73" s="397"/>
+      <c r="A73" s="397"/>
+      <c r="B73" s="400"/>
+      <c r="C73" s="402"/>
+      <c r="D73" s="402"/>
       <c r="E73" s="9" t="s">
         <v>2</v>
       </c>
@@ -11118,10 +11125,10 @@
         <v>143</v>
       </c>
       <c r="T73" s="275"/>
-      <c r="U73" s="392"/>
-      <c r="V73" s="395"/>
-      <c r="W73" s="397"/>
-      <c r="X73" s="397"/>
+      <c r="U73" s="397"/>
+      <c r="V73" s="400"/>
+      <c r="W73" s="402"/>
+      <c r="X73" s="402"/>
       <c r="Y73" s="79" t="s">
         <v>2</v>
       </c>
@@ -11156,10 +11163,10 @@
         <v>147</v>
       </c>
       <c r="AN73" s="275"/>
-      <c r="AO73" s="392"/>
-      <c r="AP73" s="395"/>
-      <c r="AQ73" s="397"/>
-      <c r="AR73" s="397"/>
+      <c r="AO73" s="397"/>
+      <c r="AP73" s="400"/>
+      <c r="AQ73" s="402"/>
+      <c r="AR73" s="402"/>
       <c r="AS73" s="79" t="s">
         <v>2</v>
       </c>
@@ -11197,14 +11204,14 @@
       <c r="BI73" s="147"/>
     </row>
     <row r="74" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="392"/>
-      <c r="B74" s="401">
+      <c r="A74" s="397"/>
+      <c r="B74" s="406">
         <v>6</v>
       </c>
-      <c r="C74" s="400" t="s">
+      <c r="C74" s="405" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="400" t="s">
+      <c r="D74" s="405" t="s">
         <v>54</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -11225,14 +11232,14 @@
       <c r="R74" s="311"/>
       <c r="S74" s="313"/>
       <c r="T74" s="151"/>
-      <c r="U74" s="392"/>
-      <c r="V74" s="401">
+      <c r="U74" s="397"/>
+      <c r="V74" s="406">
         <v>6</v>
       </c>
-      <c r="W74" s="400" t="s">
+      <c r="W74" s="405" t="s">
         <v>53</v>
       </c>
-      <c r="X74" s="400" t="s">
+      <c r="X74" s="405" t="s">
         <v>54</v>
       </c>
       <c r="Y74" s="79" t="s">
@@ -11261,14 +11268,14 @@
         <v>147</v>
       </c>
       <c r="AN74" s="151"/>
-      <c r="AO74" s="392"/>
-      <c r="AP74" s="401">
+      <c r="AO74" s="397"/>
+      <c r="AP74" s="406">
         <v>6</v>
       </c>
-      <c r="AQ74" s="400" t="s">
+      <c r="AQ74" s="405" t="s">
         <v>53</v>
       </c>
-      <c r="AR74" s="400" t="s">
+      <c r="AR74" s="405" t="s">
         <v>54</v>
       </c>
       <c r="AS74" s="79" t="s">
@@ -11300,10 +11307,10 @@
       <c r="BI74" s="147"/>
     </row>
     <row r="75" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="393"/>
-      <c r="B75" s="402"/>
-      <c r="C75" s="403"/>
-      <c r="D75" s="403"/>
+      <c r="A75" s="398"/>
+      <c r="B75" s="407"/>
+      <c r="C75" s="408"/>
+      <c r="D75" s="408"/>
       <c r="E75" s="3" t="s">
         <v>2</v>
       </c>
@@ -11330,10 +11337,10 @@
         <v>143</v>
       </c>
       <c r="T75" s="47"/>
-      <c r="U75" s="393"/>
-      <c r="V75" s="402"/>
-      <c r="W75" s="403"/>
-      <c r="X75" s="403"/>
+      <c r="U75" s="398"/>
+      <c r="V75" s="407"/>
+      <c r="W75" s="408"/>
+      <c r="X75" s="408"/>
       <c r="Y75" s="76" t="s">
         <v>2</v>
       </c>
@@ -11368,10 +11375,10 @@
         <v>147</v>
       </c>
       <c r="AN75" s="47"/>
-      <c r="AO75" s="393"/>
-      <c r="AP75" s="402"/>
-      <c r="AQ75" s="403"/>
-      <c r="AR75" s="403"/>
+      <c r="AO75" s="398"/>
+      <c r="AP75" s="407"/>
+      <c r="AQ75" s="408"/>
+      <c r="AR75" s="408"/>
       <c r="AS75" s="76" t="s">
         <v>2</v>
       </c>
@@ -11417,17 +11424,17 @@
       <c r="J76" s="22"/>
       <c r="K76" s="30"/>
       <c r="L76" s="31"/>
-      <c r="M76" s="414" t="s">
+      <c r="M76" s="395" t="s">
         <v>71</v>
       </c>
-      <c r="N76" s="414"/>
-      <c r="O76" s="414"/>
-      <c r="P76" s="414"/>
+      <c r="N76" s="395"/>
+      <c r="O76" s="395"/>
+      <c r="P76" s="395"/>
       <c r="Q76" s="308"/>
-      <c r="R76" s="434" t="s">
+      <c r="R76" s="390" t="s">
         <v>72</v>
       </c>
-      <c r="S76" s="434"/>
+      <c r="S76" s="390"/>
       <c r="T76" s="190"/>
       <c r="U76" s="26"/>
       <c r="V76" s="26"/>
@@ -11445,17 +11452,17 @@
       <c r="AD76" s="22"/>
       <c r="AE76" s="30"/>
       <c r="AF76" s="31"/>
-      <c r="AG76" s="414" t="s">
+      <c r="AG76" s="395" t="s">
         <v>71</v>
       </c>
-      <c r="AH76" s="414"/>
-      <c r="AI76" s="414"/>
-      <c r="AJ76" s="414"/>
+      <c r="AH76" s="395"/>
+      <c r="AI76" s="395"/>
+      <c r="AJ76" s="395"/>
       <c r="AK76" s="308"/>
-      <c r="AL76" s="434" t="s">
+      <c r="AL76" s="390" t="s">
         <v>72</v>
       </c>
-      <c r="AM76" s="434"/>
+      <c r="AM76" s="390"/>
       <c r="AN76" s="190"/>
       <c r="AO76" s="26"/>
       <c r="AP76" s="26"/>
@@ -11473,17 +11480,17 @@
       <c r="AX76" s="22"/>
       <c r="AY76" s="30"/>
       <c r="AZ76" s="31"/>
-      <c r="BA76" s="414" t="s">
+      <c r="BA76" s="395" t="s">
         <v>71</v>
       </c>
-      <c r="BB76" s="414"/>
-      <c r="BC76" s="414"/>
-      <c r="BD76" s="414"/>
+      <c r="BB76" s="395"/>
+      <c r="BC76" s="395"/>
+      <c r="BD76" s="395"/>
       <c r="BE76" s="308"/>
-      <c r="BF76" s="435" t="s">
+      <c r="BF76" s="391" t="s">
         <v>72</v>
       </c>
-      <c r="BG76" s="435"/>
+      <c r="BG76" s="391"/>
       <c r="BH76" s="191"/>
     </row>
     <row r="77" spans="1:61" ht="21" x14ac:dyDescent="0.35">
@@ -11551,17 +11558,17 @@
     <row r="78" spans="1:61" ht="45.75" x14ac:dyDescent="0.65">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
-      <c r="C78" s="436" t="s">
+      <c r="C78" s="392" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="437"/>
-      <c r="E78" s="437"/>
-      <c r="F78" s="437"/>
-      <c r="G78" s="437"/>
-      <c r="H78" s="437"/>
-      <c r="I78" s="437"/>
-      <c r="J78" s="437"/>
-      <c r="K78" s="438"/>
+      <c r="D78" s="393"/>
+      <c r="E78" s="393"/>
+      <c r="F78" s="393"/>
+      <c r="G78" s="393"/>
+      <c r="H78" s="393"/>
+      <c r="I78" s="393"/>
+      <c r="J78" s="393"/>
+      <c r="K78" s="394"/>
       <c r="M78" s="6"/>
       <c r="N78" s="24"/>
       <c r="O78" s="24"/>
@@ -11570,17 +11577,17 @@
       <c r="T78" s="24"/>
       <c r="U78" s="33"/>
       <c r="V78" s="34"/>
-      <c r="W78" s="436" t="s">
+      <c r="W78" s="392" t="s">
         <v>44</v>
       </c>
-      <c r="X78" s="437"/>
-      <c r="Y78" s="437"/>
-      <c r="Z78" s="437"/>
-      <c r="AA78" s="437"/>
-      <c r="AB78" s="437"/>
-      <c r="AC78" s="437"/>
-      <c r="AD78" s="437"/>
-      <c r="AE78" s="438"/>
+      <c r="X78" s="393"/>
+      <c r="Y78" s="393"/>
+      <c r="Z78" s="393"/>
+      <c r="AA78" s="393"/>
+      <c r="AB78" s="393"/>
+      <c r="AC78" s="393"/>
+      <c r="AD78" s="393"/>
+      <c r="AE78" s="394"/>
       <c r="AG78" s="6"/>
       <c r="AH78" s="24"/>
       <c r="AI78" s="24"/>
@@ -12364,6 +12371,353 @@
     </row>
   </sheetData>
   <mergeCells count="371">
+    <mergeCell ref="AO64:AO75"/>
+    <mergeCell ref="AP64:AP65"/>
+    <mergeCell ref="AQ64:AQ65"/>
+    <mergeCell ref="AR64:AR65"/>
+    <mergeCell ref="AP66:AP67"/>
+    <mergeCell ref="AQ66:AQ67"/>
+    <mergeCell ref="AR66:AR67"/>
+    <mergeCell ref="AP68:AP69"/>
+    <mergeCell ref="AQ68:AQ69"/>
+    <mergeCell ref="AR68:AR69"/>
+    <mergeCell ref="AP70:AP71"/>
+    <mergeCell ref="AQ70:AQ71"/>
+    <mergeCell ref="AR70:AR71"/>
+    <mergeCell ref="AP72:AP73"/>
+    <mergeCell ref="AQ72:AQ73"/>
+    <mergeCell ref="AR72:AR73"/>
+    <mergeCell ref="AP74:AP75"/>
+    <mergeCell ref="AQ74:AQ75"/>
+    <mergeCell ref="AR74:AR75"/>
+    <mergeCell ref="AO52:AO63"/>
+    <mergeCell ref="AP52:AP53"/>
+    <mergeCell ref="AQ52:AQ53"/>
+    <mergeCell ref="AR52:AR53"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AP56:AP57"/>
+    <mergeCell ref="AQ56:AQ57"/>
+    <mergeCell ref="AR56:AR57"/>
+    <mergeCell ref="AP58:AP59"/>
+    <mergeCell ref="AQ58:AQ59"/>
+    <mergeCell ref="AR58:AR59"/>
+    <mergeCell ref="AP60:AP61"/>
+    <mergeCell ref="AQ60:AQ61"/>
+    <mergeCell ref="AR60:AR61"/>
+    <mergeCell ref="AP62:AP63"/>
+    <mergeCell ref="AQ62:AQ63"/>
+    <mergeCell ref="AR62:AR63"/>
+    <mergeCell ref="AO40:AO51"/>
+    <mergeCell ref="AP40:AP41"/>
+    <mergeCell ref="AQ40:AQ41"/>
+    <mergeCell ref="AR40:AR41"/>
+    <mergeCell ref="AP42:AP43"/>
+    <mergeCell ref="AQ42:AQ43"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="AP44:AP45"/>
+    <mergeCell ref="AQ44:AQ45"/>
+    <mergeCell ref="AR44:AR45"/>
+    <mergeCell ref="AP46:AP47"/>
+    <mergeCell ref="AQ46:AQ47"/>
+    <mergeCell ref="AR46:AR47"/>
+    <mergeCell ref="AP48:AP49"/>
+    <mergeCell ref="AQ48:AQ49"/>
+    <mergeCell ref="AR48:AR49"/>
+    <mergeCell ref="AP50:AP51"/>
+    <mergeCell ref="AQ50:AQ51"/>
+    <mergeCell ref="AR50:AR51"/>
+    <mergeCell ref="AO28:AO39"/>
+    <mergeCell ref="AP28:AP29"/>
+    <mergeCell ref="AQ28:AQ29"/>
+    <mergeCell ref="AR28:AR29"/>
+    <mergeCell ref="AP30:AP31"/>
+    <mergeCell ref="AQ30:AQ31"/>
+    <mergeCell ref="AR30:AR31"/>
+    <mergeCell ref="AP32:AP33"/>
+    <mergeCell ref="AQ32:AQ33"/>
+    <mergeCell ref="AR32:AR33"/>
+    <mergeCell ref="AP34:AP35"/>
+    <mergeCell ref="AQ34:AQ35"/>
+    <mergeCell ref="AR34:AR35"/>
+    <mergeCell ref="AP36:AP37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AR36:AR37"/>
+    <mergeCell ref="AP38:AP39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AR38:AR39"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AO16:AO27"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AP18:AP19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AR18:AR19"/>
+    <mergeCell ref="AP20:AP21"/>
+    <mergeCell ref="AQ20:AQ21"/>
+    <mergeCell ref="AR20:AR21"/>
+    <mergeCell ref="AP22:AP23"/>
+    <mergeCell ref="AQ22:AQ23"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AR24:AR25"/>
+    <mergeCell ref="AP26:AP27"/>
+    <mergeCell ref="AQ26:AQ27"/>
+    <mergeCell ref="AR26:AR27"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="BA76:BD76"/>
+    <mergeCell ref="AT2:AV2"/>
+    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="AP1:BB1"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AS2"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="AO4:AO15"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A40:A51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="X14:X15"/>
+    <mergeCell ref="U16:U27"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="M76:P76"/>
+    <mergeCell ref="V1:AH1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="U4:U15"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="U28:U39"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="V34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="V38:V39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="X38:X39"/>
+    <mergeCell ref="U40:U51"/>
+    <mergeCell ref="V40:V41"/>
+    <mergeCell ref="W40:W41"/>
+    <mergeCell ref="X40:X41"/>
+    <mergeCell ref="V42:V43"/>
+    <mergeCell ref="W42:W43"/>
+    <mergeCell ref="X42:X43"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="W46:W47"/>
+    <mergeCell ref="X46:X47"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="W48:W49"/>
+    <mergeCell ref="X48:X49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="W50:W51"/>
+    <mergeCell ref="X50:X51"/>
+    <mergeCell ref="X74:X75"/>
+    <mergeCell ref="U52:U63"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="W56:W57"/>
+    <mergeCell ref="X56:X57"/>
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="W58:W59"/>
+    <mergeCell ref="X58:X59"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="W60:W61"/>
+    <mergeCell ref="X60:X61"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="W62:W63"/>
+    <mergeCell ref="X62:X63"/>
     <mergeCell ref="R76:S76"/>
     <mergeCell ref="AL76:AM76"/>
     <mergeCell ref="BF76:BG76"/>
@@ -12388,353 +12742,6 @@
     <mergeCell ref="X72:X73"/>
     <mergeCell ref="V74:V75"/>
     <mergeCell ref="W74:W75"/>
-    <mergeCell ref="X74:X75"/>
-    <mergeCell ref="U52:U63"/>
-    <mergeCell ref="V52:V53"/>
-    <mergeCell ref="W52:W53"/>
-    <mergeCell ref="X52:X53"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="V56:V57"/>
-    <mergeCell ref="W56:W57"/>
-    <mergeCell ref="X56:X57"/>
-    <mergeCell ref="V58:V59"/>
-    <mergeCell ref="W58:W59"/>
-    <mergeCell ref="X58:X59"/>
-    <mergeCell ref="V60:V61"/>
-    <mergeCell ref="W60:W61"/>
-    <mergeCell ref="X60:X61"/>
-    <mergeCell ref="V62:V63"/>
-    <mergeCell ref="W62:W63"/>
-    <mergeCell ref="X62:X63"/>
-    <mergeCell ref="X38:X39"/>
-    <mergeCell ref="U40:U51"/>
-    <mergeCell ref="V40:V41"/>
-    <mergeCell ref="W40:W41"/>
-    <mergeCell ref="X40:X41"/>
-    <mergeCell ref="V42:V43"/>
-    <mergeCell ref="W42:W43"/>
-    <mergeCell ref="X42:X43"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="V46:V47"/>
-    <mergeCell ref="W46:W47"/>
-    <mergeCell ref="X46:X47"/>
-    <mergeCell ref="V48:V49"/>
-    <mergeCell ref="W48:W49"/>
-    <mergeCell ref="X48:X49"/>
-    <mergeCell ref="V50:V51"/>
-    <mergeCell ref="W50:W51"/>
-    <mergeCell ref="X50:X51"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="V22:V23"/>
-    <mergeCell ref="W22:W23"/>
-    <mergeCell ref="X22:X23"/>
-    <mergeCell ref="V24:V25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="U28:U39"/>
-    <mergeCell ref="V28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="X28:X29"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="V34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="X36:X37"/>
-    <mergeCell ref="V38:V39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="M76:P76"/>
-    <mergeCell ref="V1:AH1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="U4:U15"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="X14:X15"/>
-    <mergeCell ref="U16:U27"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="A40:A51"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="BA76:BD76"/>
-    <mergeCell ref="AT2:AV2"/>
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="AP1:BB1"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AS2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="AO4:AO15"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AR6:AR7"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AO16:AO27"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AP18:AP19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AR18:AR19"/>
-    <mergeCell ref="AP20:AP21"/>
-    <mergeCell ref="AQ20:AQ21"/>
-    <mergeCell ref="AR20:AR21"/>
-    <mergeCell ref="AP22:AP23"/>
-    <mergeCell ref="AQ22:AQ23"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AR24:AR25"/>
-    <mergeCell ref="AP26:AP27"/>
-    <mergeCell ref="AQ26:AQ27"/>
-    <mergeCell ref="AR26:AR27"/>
-    <mergeCell ref="AO28:AO39"/>
-    <mergeCell ref="AP28:AP29"/>
-    <mergeCell ref="AQ28:AQ29"/>
-    <mergeCell ref="AR28:AR29"/>
-    <mergeCell ref="AP30:AP31"/>
-    <mergeCell ref="AQ30:AQ31"/>
-    <mergeCell ref="AR30:AR31"/>
-    <mergeCell ref="AP32:AP33"/>
-    <mergeCell ref="AQ32:AQ33"/>
-    <mergeCell ref="AR32:AR33"/>
-    <mergeCell ref="AP34:AP35"/>
-    <mergeCell ref="AQ34:AQ35"/>
-    <mergeCell ref="AR34:AR35"/>
-    <mergeCell ref="AP36:AP37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AR36:AR37"/>
-    <mergeCell ref="AP38:AP39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AR38:AR39"/>
-    <mergeCell ref="AO40:AO51"/>
-    <mergeCell ref="AP40:AP41"/>
-    <mergeCell ref="AQ40:AQ41"/>
-    <mergeCell ref="AR40:AR41"/>
-    <mergeCell ref="AP42:AP43"/>
-    <mergeCell ref="AQ42:AQ43"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="AP44:AP45"/>
-    <mergeCell ref="AQ44:AQ45"/>
-    <mergeCell ref="AR44:AR45"/>
-    <mergeCell ref="AP46:AP47"/>
-    <mergeCell ref="AQ46:AQ47"/>
-    <mergeCell ref="AR46:AR47"/>
-    <mergeCell ref="AP48:AP49"/>
-    <mergeCell ref="AQ48:AQ49"/>
-    <mergeCell ref="AR48:AR49"/>
-    <mergeCell ref="AP50:AP51"/>
-    <mergeCell ref="AQ50:AQ51"/>
-    <mergeCell ref="AR50:AR51"/>
-    <mergeCell ref="AO52:AO63"/>
-    <mergeCell ref="AP52:AP53"/>
-    <mergeCell ref="AQ52:AQ53"/>
-    <mergeCell ref="AR52:AR53"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AP56:AP57"/>
-    <mergeCell ref="AQ56:AQ57"/>
-    <mergeCell ref="AR56:AR57"/>
-    <mergeCell ref="AP58:AP59"/>
-    <mergeCell ref="AQ58:AQ59"/>
-    <mergeCell ref="AR58:AR59"/>
-    <mergeCell ref="AP60:AP61"/>
-    <mergeCell ref="AQ60:AQ61"/>
-    <mergeCell ref="AR60:AR61"/>
-    <mergeCell ref="AP62:AP63"/>
-    <mergeCell ref="AQ62:AQ63"/>
-    <mergeCell ref="AR62:AR63"/>
-    <mergeCell ref="AO64:AO75"/>
-    <mergeCell ref="AP64:AP65"/>
-    <mergeCell ref="AQ64:AQ65"/>
-    <mergeCell ref="AR64:AR65"/>
-    <mergeCell ref="AP66:AP67"/>
-    <mergeCell ref="AQ66:AQ67"/>
-    <mergeCell ref="AR66:AR67"/>
-    <mergeCell ref="AP68:AP69"/>
-    <mergeCell ref="AQ68:AQ69"/>
-    <mergeCell ref="AR68:AR69"/>
-    <mergeCell ref="AP70:AP71"/>
-    <mergeCell ref="AQ70:AQ71"/>
-    <mergeCell ref="AR70:AR71"/>
-    <mergeCell ref="AP72:AP73"/>
-    <mergeCell ref="AQ72:AQ73"/>
-    <mergeCell ref="AR72:AR73"/>
-    <mergeCell ref="AP74:AP75"/>
-    <mergeCell ref="AQ74:AQ75"/>
-    <mergeCell ref="AR74:AR75"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
